--- a/AMSMetadata.xlsx
+++ b/AMSMetadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Work\VERS-2015\VPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6530B865-D3D6-4EED-B19A-87FBB61BFD66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF885135-C1A4-4C87-930B-EB127DC177D4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="8580" tabRatio="954" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,18 @@
     <sheet name="Validation lists" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. PROV ACM Metadata'!$A$2:$U$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. PROV ACM Metadata'!$A$2:$V$127</definedName>
     <definedName name="List1">'Validation lists'!$A$12:$A$24</definedName>
     <definedName name="List2">'Validation lists'!$A$26:$A$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1. PROV ACM Metadata'!$1:$2</definedName>
     <definedName name="Source">'Validation lists'!$A$3:$A$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="612">
   <si>
     <t>M</t>
   </si>
@@ -5181,6 +5180,168 @@
   </si>
   <si>
     <t>11/4/2018: Two dates are required for a V2 VEO, but the property is not repeatable</t>
+  </si>
+  <si>
+    <t>json element (from IO-*.json)</t>
+  </si>
+  <si>
+    <t>io\veoFileName</t>
+  </si>
+  <si>
+    <t>io\veoVersion</t>
+  </si>
+  <si>
+    <t>io\v2VeoType</t>
+  </si>
+  <si>
+    <t>io\veoPID</t>
+  </si>
+  <si>
+    <t>io\v2VEOId</t>
+  </si>
+  <si>
+    <t>io/parent</t>
+  </si>
+  <si>
+    <t>IO PID</t>
+  </si>
+  <si>
+    <t>io/ioPID</t>
+  </si>
+  <si>
+    <t>io/ioSeqNo</t>
+  </si>
+  <si>
+    <t>io depth</t>
+  </si>
+  <si>
+    <t>io/ioDepth</t>
+  </si>
+  <si>
+    <t>Parent IO of this IO The PID of the parent IO. Will not be present in the root IO of a VEO</t>
+  </si>
+  <si>
+    <t>Child IO The list of PIDS of child IOs. Will not be present in leaf Ios</t>
+  </si>
+  <si>
+    <t>io/children</t>
+  </si>
+  <si>
+    <t>Child IO</t>
+  </si>
+  <si>
+    <t>io/children/child</t>
+  </si>
+  <si>
+    <t>io/title</t>
+  </si>
+  <si>
+    <t>io/label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO Label </t>
+  </si>
+  <si>
+    <t>io/identifiers/identifier/value</t>
+  </si>
+  <si>
+    <t>io/identifiers/identifier/scheme</t>
+  </si>
+  <si>
+    <t>io/dateCreated, io/dateRegistered</t>
+  </si>
+  <si>
+    <t>io/descriptions/description</t>
+  </si>
+  <si>
+    <t>Relationship Only present if IO has explicit relationship elements</t>
+  </si>
+  <si>
+    <t>io/relationships/relation</t>
+  </si>
+  <si>
+    <t>Relationship type</t>
+  </si>
+  <si>
+    <t>io/relationships/relation/type</t>
+  </si>
+  <si>
+    <t>Relationship target</t>
+  </si>
+  <si>
+    <t>io/relationships/relation/targetId</t>
+  </si>
+  <si>
+    <t>Relationship description</t>
+  </si>
+  <si>
+    <t>io/relationships/relation/description</t>
+  </si>
+  <si>
+    <t>io/jurisdictionalCoverage/jurisdiction</t>
+  </si>
+  <si>
+    <t>io/spatialCoverage/place</t>
+  </si>
+  <si>
+    <t>Disposal Mandate</t>
+  </si>
+  <si>
+    <t>io/disposalAuthorisation/mandate</t>
+  </si>
+  <si>
+    <t>io/infoPieces/ipLabel</t>
+  </si>
+  <si>
+    <t>Information Piece Sequence No</t>
+  </si>
+  <si>
+    <t>io/infoPieces/ipSeqNo</t>
+  </si>
+  <si>
+    <t>Content File Sequence No</t>
+  </si>
+  <si>
+    <t>io/infoPieces/contentFiles/cfSeqNo</t>
+  </si>
+  <si>
+    <t>io/infoPieces/contentFiles/  sourceFileName</t>
+  </si>
+  <si>
+    <t>io/infoPieces/contentFiles/ sourceFileExtension</t>
+  </si>
+  <si>
+    <t>io/infoPieces/contentFiles/ fileSizeBytes</t>
+  </si>
+  <si>
+    <t>io/infoPieces/contentFiles/samsURI</t>
+  </si>
+  <si>
+    <t>Content File location</t>
+  </si>
+  <si>
+    <t>io/infoPieces/contentFiles/ fileLocation</t>
+  </si>
+  <si>
+    <t>events/EventType</t>
+  </si>
+  <si>
+    <t>events/EventDescription</t>
+  </si>
+  <si>
+    <t>events/EventDateTime</t>
+  </si>
+  <si>
+    <t>io/metaPackages/id</t>
+  </si>
+  <si>
+    <t>io/metaPackages/schema</t>
+  </si>
+  <si>
+    <t>io/metaPackages/format</t>
+  </si>
+  <si>
+    <t>io/metaPackages/content</t>
   </si>
 </sst>
 </file>
@@ -5446,7 +5607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6429,6 +6590,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6774,10 +6941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U136"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="B126" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6791,22 +6958,23 @@
     <col min="7" max="7" width="4.5546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="34.5546875" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5546875" style="318" customWidth="1"/>
-    <col min="11" max="11" width="17" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="23" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.44140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="60.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="98.109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="49.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="95.33203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="23" style="4" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="4"/>
+    <col min="10" max="10" width="34.5546875" style="265" customWidth="1"/>
+    <col min="11" max="11" width="34.5546875" style="318" customWidth="1"/>
+    <col min="12" max="12" width="17" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="26.44140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="60.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="98.109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="49.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="95.33203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="23" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="327" t="s">
         <v>33</v>
       </c>
@@ -6832,8 +7000,9 @@
       <c r="S1" s="329"/>
       <c r="T1" s="329"/>
       <c r="U1" s="329"/>
-    </row>
-    <row r="2" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V1" s="329"/>
+    </row>
+    <row r="2" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="143" t="s">
         <v>222</v>
       </c>
@@ -6861,44 +7030,47 @@
       <c r="I2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="317" t="s">
+      <c r="J2" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="K2" s="317" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="138">
         <v>0</v>
       </c>
@@ -6926,34 +7098,35 @@
       <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="292" t="s">
+      <c r="J3" s="227"/>
+      <c r="K3" s="292" t="s">
         <v>554</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="N3" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="122" t="s">
+      <c r="O3" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="122" t="s">
+      <c r="P3" s="122" t="s">
         <v>477</v>
       </c>
-      <c r="P3" s="122" t="s">
+      <c r="Q3" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="122"/>
       <c r="R3" s="122"/>
       <c r="S3" s="122"/>
       <c r="T3" s="122"/>
       <c r="U3" s="122"/>
-    </row>
-    <row r="4" spans="1:21" ht="263.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V3" s="122"/>
+    </row>
+    <row r="4" spans="1:22" ht="263.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133">
         <v>1</v>
       </c>
@@ -6981,36 +7154,37 @@
       <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="291" t="s">
+      <c r="J4" s="227"/>
+      <c r="K4" s="291" t="s">
         <v>542</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="122" t="s">
+      <c r="N4" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="122" t="s">
+      <c r="O4" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="274" t="s">
+      <c r="P4" s="274" t="s">
         <v>478</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="Q4" s="122" t="s">
         <v>479</v>
       </c>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122" t="s">
+      <c r="R4" s="122"/>
+      <c r="S4" s="122" t="s">
         <v>511</v>
       </c>
-      <c r="S4" s="122"/>
       <c r="T4" s="122"/>
       <c r="U4" s="122"/>
-    </row>
-    <row r="5" spans="1:21" s="299" customFormat="1" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="122"/>
+    </row>
+    <row r="5" spans="1:22" s="299" customFormat="1" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="295">
         <v>2</v>
       </c>
@@ -7038,13 +7212,11 @@
       <c r="I5" s="296" t="s">
         <v>344</v>
       </c>
-      <c r="J5" s="297"/>
-      <c r="K5" s="296" t="s">
+      <c r="J5" s="296"/>
+      <c r="K5" s="297"/>
+      <c r="L5" s="296" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="298" t="s">
-        <v>20</v>
-      </c>
       <c r="M5" s="298" t="s">
         <v>20</v>
       </c>
@@ -7054,18 +7226,21 @@
       <c r="O5" s="298" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="296" t="s">
+      <c r="P5" s="298" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="296" t="s">
         <v>419</v>
       </c>
-      <c r="Q5" s="296"/>
-      <c r="R5" s="296" t="s">
+      <c r="R5" s="296"/>
+      <c r="S5" s="296" t="s">
         <v>512</v>
       </c>
-      <c r="S5" s="296"/>
       <c r="T5" s="296"/>
       <c r="U5" s="296"/>
-    </row>
-    <row r="6" spans="1:21" ht="361.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V5" s="296"/>
+    </row>
+    <row r="6" spans="1:22" ht="361.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130">
         <v>2.1</v>
       </c>
@@ -7093,36 +7268,39 @@
       <c r="I6" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="291" t="s">
+      <c r="J6" s="277" t="s">
+        <v>578</v>
+      </c>
+      <c r="K6" s="291" t="s">
         <v>555</v>
       </c>
-      <c r="K6" s="268" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="268" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="N6" s="122" t="s">
         <v>346</v>
       </c>
-      <c r="N6" s="159" t="s">
+      <c r="O6" s="159" t="s">
         <v>263</v>
       </c>
-      <c r="O6" s="159" t="s">
+      <c r="P6" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="P6" s="122" t="s">
+      <c r="Q6" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="Q6" s="161" t="s">
+      <c r="R6" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="122"/>
       <c r="S6" s="122"/>
       <c r="T6" s="122"/>
       <c r="U6" s="122"/>
-    </row>
-    <row r="7" spans="1:21" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="122"/>
+    </row>
+    <row r="7" spans="1:22" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130">
         <v>2.2000000000000002</v>
       </c>
@@ -7150,36 +7328,39 @@
       <c r="I7" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="291" t="s">
+      <c r="J7" s="277" t="s">
+        <v>579</v>
+      </c>
+      <c r="K7" s="291" t="s">
         <v>544</v>
       </c>
-      <c r="K7" s="268" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="122" t="s">
+      <c r="L7" s="268" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="122" t="s">
+      <c r="N7" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="O7" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="O7" s="122" t="s">
+      <c r="P7" s="122" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="122" t="s">
+      <c r="Q7" s="122" t="s">
         <v>347</v>
       </c>
-      <c r="Q7" s="244" t="s">
+      <c r="R7" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="122"/>
       <c r="S7" s="122"/>
       <c r="T7" s="122"/>
       <c r="U7" s="122"/>
-    </row>
-    <row r="8" spans="1:21" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="122"/>
+    </row>
+    <row r="8" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="133">
         <v>3.1</v>
       </c>
@@ -7207,38 +7388,41 @@
       <c r="I8" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="291" t="s">
+      <c r="J8" s="277" t="s">
+        <v>575</v>
+      </c>
+      <c r="K8" s="291" t="s">
         <v>556</v>
       </c>
-      <c r="K8" s="243" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="231" t="s">
+      <c r="L8" s="243" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="231" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="231" t="s">
+      <c r="N8" s="231" t="s">
         <v>348</v>
       </c>
-      <c r="N8" s="231" t="s">
+      <c r="O8" s="231" t="s">
         <v>355</v>
       </c>
-      <c r="O8" s="231" t="s">
+      <c r="P8" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="Q8" s="234" t="s">
+      <c r="R8" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="122" t="s">
+      <c r="S8" s="122" t="s">
         <v>349</v>
       </c>
-      <c r="S8" s="122"/>
       <c r="T8" s="122"/>
       <c r="U8" s="122"/>
-    </row>
-    <row r="9" spans="1:21" s="299" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="122"/>
+    </row>
+    <row r="9" spans="1:22" s="299" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="295">
         <v>4</v>
       </c>
@@ -7266,36 +7450,37 @@
       <c r="I9" s="300" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="297"/>
-      <c r="K9" s="300" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="297" t="s">
+      <c r="J9" s="296"/>
+      <c r="K9" s="297"/>
+      <c r="L9" s="300" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="297" t="s">
         <v>151</v>
       </c>
-      <c r="M9" s="300" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="297" t="s">
+      <c r="N9" s="300" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="297" t="s">
         <v>244</v>
       </c>
-      <c r="O9" s="300" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="297" t="s">
+      <c r="P9" s="300" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="297" t="s">
         <v>341</v>
       </c>
-      <c r="Q9" s="301" t="s">
+      <c r="R9" s="301" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="297" t="s">
+      <c r="S9" s="297" t="s">
         <v>513</v>
       </c>
-      <c r="S9" s="297"/>
       <c r="T9" s="297"/>
       <c r="U9" s="297"/>
-    </row>
-    <row r="10" spans="1:21" ht="375" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="297"/>
+    </row>
+    <row r="10" spans="1:22" ht="375" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="130">
         <v>4.0999999999999996</v>
       </c>
@@ -7323,38 +7508,41 @@
       <c r="I10" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="151" t="s">
+      <c r="J10" s="330" t="s">
+        <v>580</v>
+      </c>
+      <c r="K10" s="151" t="s">
         <v>543</v>
       </c>
-      <c r="K10" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="151" t="s">
+      <c r="L10" s="228" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="M10" s="244" t="s">
+      <c r="N10" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="N10" s="244" t="s">
+      <c r="O10" s="244" t="s">
         <v>244</v>
       </c>
-      <c r="O10" s="244" t="s">
+      <c r="P10" s="244" t="s">
         <v>154</v>
       </c>
-      <c r="P10" s="151" t="s">
+      <c r="Q10" s="151" t="s">
         <v>485</v>
       </c>
-      <c r="Q10" s="234" t="s">
+      <c r="R10" s="234" t="s">
         <v>484</v>
       </c>
-      <c r="R10" s="276" t="s">
+      <c r="S10" s="276" t="s">
         <v>557</v>
       </c>
-      <c r="S10" s="244"/>
       <c r="T10" s="244"/>
       <c r="U10" s="244"/>
-    </row>
-    <row r="11" spans="1:21" s="326" customFormat="1" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="244"/>
+    </row>
+    <row r="11" spans="1:22" s="326" customFormat="1" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="319" t="s">
         <v>160</v>
       </c>
@@ -7382,36 +7570,37 @@
       <c r="I11" s="323" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="321"/>
-      <c r="K11" s="324" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="321" t="s">
+      <c r="J11" s="331"/>
+      <c r="K11" s="321"/>
+      <c r="L11" s="324" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="321" t="s">
         <v>151</v>
       </c>
-      <c r="M11" s="322" t="s">
+      <c r="N11" s="322" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="322" t="s">
+      <c r="O11" s="322" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="322" t="s">
+      <c r="P11" s="322" t="s">
         <v>486</v>
       </c>
-      <c r="P11" s="321" t="s">
+      <c r="Q11" s="321" t="s">
         <v>352</v>
       </c>
-      <c r="Q11" s="325" t="s">
+      <c r="R11" s="325" t="s">
         <v>484</v>
       </c>
-      <c r="R11" s="325" t="s">
+      <c r="S11" s="325" t="s">
         <v>340</v>
       </c>
-      <c r="S11" s="322"/>
       <c r="T11" s="322"/>
       <c r="U11" s="322"/>
-    </row>
-    <row r="12" spans="1:21" s="326" customFormat="1" ht="239.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="322"/>
+    </row>
+    <row r="12" spans="1:22" s="326" customFormat="1" ht="239.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4.2</v>
       </c>
@@ -7439,34 +7628,35 @@
       <c r="I12" s="323" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="321"/>
-      <c r="K12" s="324" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="321" t="s">
+      <c r="J12" s="331"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="324" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="321" t="s">
         <v>151</v>
       </c>
-      <c r="M12" s="322" t="s">
+      <c r="N12" s="322" t="s">
         <v>155</v>
       </c>
-      <c r="N12" s="322" t="s">
+      <c r="O12" s="322" t="s">
         <v>244</v>
       </c>
-      <c r="O12" s="322" t="s">
+      <c r="P12" s="322" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="321" t="s">
+      <c r="Q12" s="321" t="s">
         <v>487</v>
       </c>
-      <c r="Q12" s="325" t="s">
+      <c r="R12" s="325" t="s">
         <v>484</v>
       </c>
-      <c r="R12" s="322"/>
       <c r="S12" s="322"/>
       <c r="T12" s="322"/>
       <c r="U12" s="322"/>
-    </row>
-    <row r="13" spans="1:21" s="326" customFormat="1" ht="149.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="322"/>
+    </row>
+    <row r="13" spans="1:22" s="326" customFormat="1" ht="149.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="319" t="s">
         <v>161</v>
       </c>
@@ -7494,34 +7684,35 @@
       <c r="I13" s="323" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="321"/>
-      <c r="K13" s="324" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="321" t="s">
+      <c r="J13" s="331"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="324" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="321" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="322" t="s">
+      <c r="N13" s="322" t="s">
         <v>155</v>
       </c>
-      <c r="N13" s="322" t="s">
+      <c r="O13" s="322" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="322" t="s">
+      <c r="P13" s="322" t="s">
         <v>486</v>
       </c>
-      <c r="P13" s="321" t="s">
+      <c r="Q13" s="321" t="s">
         <v>353</v>
       </c>
-      <c r="Q13" s="325" t="s">
+      <c r="R13" s="325" t="s">
         <v>484</v>
       </c>
-      <c r="R13" s="322"/>
       <c r="S13" s="322"/>
       <c r="T13" s="322"/>
       <c r="U13" s="322"/>
-    </row>
-    <row r="14" spans="1:21" s="326" customFormat="1" ht="175.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V13" s="322"/>
+    </row>
+    <row r="14" spans="1:22" s="326" customFormat="1" ht="175.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="319" t="s">
         <v>259</v>
       </c>
@@ -7549,34 +7740,35 @@
       <c r="I14" s="323" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="322"/>
-      <c r="K14" s="323" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="322" t="s">
+      <c r="J14" s="320"/>
+      <c r="K14" s="322"/>
+      <c r="L14" s="323" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="322" t="s">
         <v>151</v>
       </c>
-      <c r="M14" s="322" t="s">
+      <c r="N14" s="322" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="322" t="s">
+      <c r="O14" s="322" t="s">
         <v>244</v>
       </c>
-      <c r="O14" s="322" t="s">
+      <c r="P14" s="322" t="s">
         <v>502</v>
       </c>
-      <c r="P14" s="321"/>
-      <c r="Q14" s="325" t="s">
+      <c r="Q14" s="321"/>
+      <c r="R14" s="325" t="s">
         <v>343</v>
       </c>
-      <c r="R14" s="325" t="s">
+      <c r="S14" s="325" t="s">
         <v>342</v>
       </c>
-      <c r="S14" s="322"/>
       <c r="T14" s="322"/>
       <c r="U14" s="322"/>
-    </row>
-    <row r="15" spans="1:21" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="322"/>
+    </row>
+    <row r="15" spans="1:22" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="133">
         <v>5</v>
       </c>
@@ -7604,38 +7796,41 @@
       <c r="I15" s="244" t="s">
         <v>350</v>
       </c>
-      <c r="J15" s="292" t="s">
+      <c r="J15" s="293" t="s">
+        <v>581</v>
+      </c>
+      <c r="K15" s="292" t="s">
         <v>543</v>
-      </c>
-      <c r="K15" s="244" t="s">
-        <v>151</v>
       </c>
       <c r="L15" s="244" t="s">
         <v>151</v>
       </c>
       <c r="M15" s="244" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="244" t="s">
+      <c r="O15" s="244" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="244" t="s">
+      <c r="P15" s="244" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="244" t="s">
+      <c r="Q15" s="244" t="s">
         <v>351</v>
       </c>
-      <c r="Q15" s="230" t="s">
+      <c r="R15" s="230" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="121" t="s">
+      <c r="S15" s="121" t="s">
         <v>514</v>
       </c>
-      <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-    </row>
-    <row r="16" spans="1:21" s="299" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" s="299" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="302" t="s">
         <v>162</v>
       </c>
@@ -7663,13 +7858,11 @@
       <c r="I16" s="304" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="304"/>
-      <c r="K16" s="303" t="s">
+      <c r="J16" s="303"/>
+      <c r="K16" s="304"/>
+      <c r="L16" s="303" t="s">
         <v>151</v>
       </c>
-      <c r="L16" s="305" t="s">
-        <v>20</v>
-      </c>
       <c r="M16" s="305" t="s">
         <v>20</v>
       </c>
@@ -7679,20 +7872,23 @@
       <c r="O16" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="304" t="s">
+      <c r="P16" s="305" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="304" t="s">
         <v>357</v>
       </c>
-      <c r="Q16" s="304" t="s">
+      <c r="R16" s="304" t="s">
         <v>69</v>
       </c>
-      <c r="R16" s="301" t="s">
+      <c r="S16" s="301" t="s">
         <v>360</v>
       </c>
-      <c r="S16" s="304"/>
       <c r="T16" s="304"/>
       <c r="U16" s="304"/>
-    </row>
-    <row r="17" spans="1:21" s="120" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V16" s="304"/>
+    </row>
+    <row r="17" spans="1:22" s="120" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="130" t="s">
         <v>294</v>
       </c>
@@ -7720,38 +7916,41 @@
       <c r="I17" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="291" t="s">
+      <c r="J17" s="277" t="s">
+        <v>608</v>
+      </c>
+      <c r="K17" s="291" t="s">
         <v>543</v>
       </c>
-      <c r="K17" s="227" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="231" t="s">
+      <c r="L17" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="231" t="s">
+      <c r="N17" s="231" t="s">
         <v>262</v>
       </c>
-      <c r="N17" s="231" t="s">
+      <c r="O17" s="231" t="s">
         <v>244</v>
       </c>
-      <c r="O17" s="234" t="s">
+      <c r="P17" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="231" t="s">
+      <c r="Q17" s="231" t="s">
         <v>515</v>
       </c>
-      <c r="Q17" s="244" t="s">
+      <c r="R17" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="R17" s="234" t="s">
+      <c r="S17" s="234" t="s">
         <v>365</v>
       </c>
-      <c r="S17" s="231"/>
       <c r="T17" s="231"/>
       <c r="U17" s="231"/>
-    </row>
-    <row r="18" spans="1:21" s="120" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V17" s="231"/>
+    </row>
+    <row r="18" spans="1:22" s="120" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="130" t="s">
         <v>295</v>
       </c>
@@ -7779,38 +7978,41 @@
       <c r="I18" s="253" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="291" t="s">
+      <c r="J18" s="277" t="s">
+        <v>609</v>
+      </c>
+      <c r="K18" s="291" t="s">
         <v>543</v>
       </c>
-      <c r="K18" s="253" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="231" t="s">
+      <c r="L18" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="231" t="s">
+      <c r="N18" s="231" t="s">
         <v>262</v>
       </c>
-      <c r="N18" s="231" t="s">
+      <c r="O18" s="231" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="234" t="s">
+      <c r="P18" s="234" t="s">
         <v>503</v>
       </c>
-      <c r="P18" s="231" t="s">
+      <c r="Q18" s="231" t="s">
         <v>366</v>
       </c>
-      <c r="Q18" s="244" t="s">
+      <c r="R18" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="R18" s="231" t="s">
+      <c r="S18" s="231" t="s">
         <v>363</v>
       </c>
-      <c r="S18" s="231"/>
       <c r="T18" s="231"/>
       <c r="U18" s="231"/>
-    </row>
-    <row r="19" spans="1:21" s="120" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V18" s="231"/>
+    </row>
+    <row r="19" spans="1:22" s="120" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="130" t="s">
         <v>296</v>
       </c>
@@ -7838,38 +8040,41 @@
       <c r="I19" s="253" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="291" t="s">
+      <c r="J19" s="277" t="s">
+        <v>610</v>
+      </c>
+      <c r="K19" s="291" t="s">
         <v>543</v>
       </c>
-      <c r="K19" s="253" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="231" t="s">
+      <c r="L19" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="231" t="s">
+      <c r="N19" s="231" t="s">
         <v>262</v>
       </c>
-      <c r="N19" s="231" t="s">
+      <c r="O19" s="231" t="s">
         <v>244</v>
       </c>
-      <c r="O19" s="234" t="s">
+      <c r="P19" s="234" t="s">
         <v>504</v>
       </c>
-      <c r="P19" s="231" t="s">
+      <c r="Q19" s="231" t="s">
         <v>462</v>
       </c>
-      <c r="Q19" s="244" t="s">
+      <c r="R19" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="R19" s="231" t="s">
+      <c r="S19" s="231" t="s">
         <v>363</v>
       </c>
-      <c r="S19" s="231"/>
       <c r="T19" s="231"/>
       <c r="U19" s="231"/>
-    </row>
-    <row r="20" spans="1:21" s="120" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V19" s="231"/>
+    </row>
+    <row r="20" spans="1:22" s="120" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="130" t="s">
         <v>297</v>
       </c>
@@ -7897,36 +8102,39 @@
       <c r="I20" s="253" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="291" t="s">
+      <c r="J20" s="277" t="s">
+        <v>611</v>
+      </c>
+      <c r="K20" s="291" t="s">
         <v>543</v>
       </c>
-      <c r="K20" s="253" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="231" t="s">
+      <c r="L20" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="231" t="s">
+      <c r="N20" s="231" t="s">
         <v>262</v>
       </c>
-      <c r="N20" s="231" t="s">
+      <c r="O20" s="231" t="s">
         <v>244</v>
       </c>
-      <c r="O20" s="231" t="s">
+      <c r="P20" s="231" t="s">
         <v>361</v>
       </c>
-      <c r="P20" s="231" t="s">
+      <c r="Q20" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="Q20" s="244" t="s">
+      <c r="R20" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="R20" s="234"/>
-      <c r="S20" s="231"/>
+      <c r="S20" s="234"/>
       <c r="T20" s="231"/>
       <c r="U20" s="231"/>
-    </row>
-    <row r="21" spans="1:21" s="299" customFormat="1" ht="304.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V20" s="231"/>
+    </row>
+    <row r="21" spans="1:22" s="299" customFormat="1" ht="304.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="302">
         <v>12</v>
       </c>
@@ -7954,13 +8162,11 @@
       <c r="I21" s="303" t="s">
         <v>269</v>
       </c>
-      <c r="J21" s="304"/>
-      <c r="K21" s="303" t="s">
+      <c r="J21" s="303"/>
+      <c r="K21" s="304"/>
+      <c r="L21" s="303" t="s">
         <v>151</v>
       </c>
-      <c r="L21" s="305" t="s">
-        <v>20</v>
-      </c>
       <c r="M21" s="305" t="s">
         <v>20</v>
       </c>
@@ -7970,20 +8176,23 @@
       <c r="O21" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="303" t="s">
+      <c r="P21" s="305" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="303" t="s">
         <v>517</v>
       </c>
-      <c r="Q21" s="303" t="s">
+      <c r="R21" s="303" t="s">
         <v>270</v>
       </c>
-      <c r="R21" s="301" t="s">
+      <c r="S21" s="301" t="s">
         <v>516</v>
       </c>
-      <c r="S21" s="303"/>
       <c r="T21" s="303"/>
       <c r="U21" s="303"/>
-    </row>
-    <row r="22" spans="1:21" ht="347.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V21" s="303"/>
+    </row>
+    <row r="22" spans="1:22" ht="347.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="133">
         <v>12.1</v>
       </c>
@@ -8011,36 +8220,37 @@
       <c r="I22" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="292" t="s">
+      <c r="J22" s="293"/>
+      <c r="K22" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K22" s="164" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="163" t="s">
+      <c r="L22" s="164" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="163" t="s">
         <v>151</v>
       </c>
-      <c r="M22" s="163" t="s">
+      <c r="N22" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="163" t="s">
+      <c r="O22" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="O22" s="163" t="s">
+      <c r="P22" s="163" t="s">
         <v>273</v>
       </c>
-      <c r="P22" s="163" t="s">
+      <c r="Q22" s="163" t="s">
         <v>268</v>
       </c>
-      <c r="Q22" s="163" t="s">
+      <c r="R22" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="163"/>
-      <c r="S22" s="11"/>
+      <c r="S22" s="163"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" ht="331.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="1:22" ht="331.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="133">
         <v>12.3</v>
       </c>
@@ -8068,38 +8278,39 @@
       <c r="I23" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="292" t="s">
+      <c r="J23" s="293"/>
+      <c r="K23" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K23" s="169" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="167" t="s">
+      <c r="L23" s="169" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="M23" s="167" t="s">
+      <c r="N23" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="168" t="s">
+      <c r="O23" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="168" t="s">
+      <c r="P23" s="168" t="s">
         <v>464</v>
       </c>
-      <c r="P23" s="167" t="s">
+      <c r="Q23" s="167" t="s">
         <v>465</v>
       </c>
-      <c r="Q23" s="167" t="s">
+      <c r="R23" s="167" t="s">
         <v>466</v>
       </c>
-      <c r="R23" s="166" t="s">
+      <c r="S23" s="166" t="s">
         <v>509</v>
       </c>
-      <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-    </row>
-    <row r="24" spans="1:21" s="16" customFormat="1" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V23" s="11"/>
+    </row>
+    <row r="24" spans="1:22" s="16" customFormat="1" ht="177" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="133" t="s">
         <v>163</v>
       </c>
@@ -8127,38 +8338,39 @@
       <c r="I24" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="292" t="s">
+      <c r="J24" s="293"/>
+      <c r="K24" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K24" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="172" t="s">
+      <c r="L24" s="174" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="M24" s="172" t="s">
+      <c r="N24" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="173" t="s">
+      <c r="O24" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="173" t="s">
+      <c r="P24" s="173" t="s">
         <v>275</v>
       </c>
-      <c r="P24" s="172" t="s">
+      <c r="Q24" s="172" t="s">
         <v>276</v>
       </c>
-      <c r="Q24" s="175" t="s">
+      <c r="R24" s="175" t="s">
         <v>208</v>
       </c>
-      <c r="R24" s="171" t="s">
+      <c r="S24" s="171" t="s">
         <v>518</v>
       </c>
-      <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-    </row>
-    <row r="25" spans="1:21" s="18" customFormat="1" ht="213" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V24" s="17"/>
+    </row>
+    <row r="25" spans="1:22" s="18" customFormat="1" ht="213" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="133" t="s">
         <v>164</v>
       </c>
@@ -8186,36 +8398,37 @@
       <c r="I25" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="292" t="s">
+      <c r="J25" s="293"/>
+      <c r="K25" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K25" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="177" t="s">
+      <c r="L25" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="176" t="s">
+      <c r="N25" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="N25" s="178" t="s">
+      <c r="O25" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="O25" s="178" t="s">
+      <c r="P25" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="P25" s="177" t="s">
+      <c r="Q25" s="177" t="s">
         <v>277</v>
       </c>
-      <c r="Q25" s="177" t="s">
+      <c r="R25" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="R25" s="176"/>
-      <c r="S25" s="19"/>
+      <c r="S25" s="176"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
-    </row>
-    <row r="26" spans="1:21" s="20" customFormat="1" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V25" s="19"/>
+    </row>
+    <row r="26" spans="1:22" s="20" customFormat="1" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="133" t="s">
         <v>165</v>
       </c>
@@ -8243,36 +8456,37 @@
       <c r="I26" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="292" t="s">
+      <c r="J26" s="293"/>
+      <c r="K26" s="292" t="s">
         <v>546</v>
       </c>
-      <c r="K26" s="183" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="181" t="s">
+      <c r="L26" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="181" t="s">
         <v>151</v>
       </c>
-      <c r="M26" s="180" t="s">
+      <c r="N26" s="180" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="182" t="s">
+      <c r="O26" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="182" t="s">
+      <c r="P26" s="182" t="s">
         <v>154</v>
       </c>
-      <c r="P26" s="181" t="s">
+      <c r="Q26" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="Q26" s="181" t="s">
+      <c r="R26" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="R26" s="180"/>
-      <c r="S26" s="21"/>
+      <c r="S26" s="180"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
-    </row>
-    <row r="27" spans="1:21" s="22" customFormat="1" ht="175.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V26" s="21"/>
+    </row>
+    <row r="27" spans="1:22" s="22" customFormat="1" ht="175.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="133" t="s">
         <v>166</v>
       </c>
@@ -8300,36 +8514,37 @@
       <c r="I27" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="292" t="s">
+      <c r="J27" s="293"/>
+      <c r="K27" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K27" s="187" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="185" t="s">
+      <c r="L27" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="M27" s="185" t="s">
+      <c r="N27" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="N27" s="186" t="s">
+      <c r="O27" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="187" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="185" t="s">
+      <c r="P27" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="Q27" s="188" t="s">
+      <c r="R27" s="188" t="s">
         <v>209</v>
       </c>
-      <c r="R27" s="184"/>
-      <c r="S27" s="23"/>
+      <c r="S27" s="184"/>
       <c r="T27" s="23"/>
       <c r="U27" s="23"/>
-    </row>
-    <row r="28" spans="1:21" s="24" customFormat="1" ht="171" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="23"/>
+    </row>
+    <row r="28" spans="1:22" s="24" customFormat="1" ht="171" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="133" t="s">
         <v>167</v>
       </c>
@@ -8357,36 +8572,37 @@
       <c r="I28" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="292" t="s">
+      <c r="J28" s="293"/>
+      <c r="K28" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K28" s="192" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="190" t="s">
+      <c r="L28" s="192" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="190" t="s">
         <v>151</v>
       </c>
-      <c r="M28" s="190" t="s">
+      <c r="N28" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="191" t="s">
+      <c r="O28" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="191" t="s">
+      <c r="P28" s="191" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="190" t="s">
+      <c r="Q28" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="Q28" s="190" t="s">
+      <c r="R28" s="190" t="s">
         <v>211</v>
       </c>
-      <c r="R28" s="189"/>
-      <c r="S28" s="25"/>
+      <c r="S28" s="189"/>
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
-    </row>
-    <row r="29" spans="1:21" s="120" customFormat="1" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V28" s="25"/>
+    </row>
+    <row r="29" spans="1:22" s="120" customFormat="1" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="133" t="s">
         <v>223</v>
       </c>
@@ -8414,38 +8630,39 @@
       <c r="I29" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="292" t="s">
+      <c r="J29" s="293"/>
+      <c r="K29" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K29" s="197" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="195" t="s">
+      <c r="L29" s="197" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="195" t="s">
         <v>151</v>
       </c>
-      <c r="M29" s="195" t="s">
+      <c r="N29" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="196" t="s">
+      <c r="O29" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="196" t="s">
+      <c r="P29" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="P29" s="195" t="s">
+      <c r="Q29" s="195" t="s">
         <v>289</v>
       </c>
-      <c r="Q29" s="193" t="s">
+      <c r="R29" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="R29" s="194" t="s">
+      <c r="S29" s="194" t="s">
         <v>227</v>
       </c>
-      <c r="S29" s="146"/>
       <c r="T29" s="146"/>
       <c r="U29" s="146"/>
-    </row>
-    <row r="30" spans="1:21" s="120" customFormat="1" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V29" s="146"/>
+    </row>
+    <row r="30" spans="1:22" s="120" customFormat="1" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="133" t="s">
         <v>251</v>
       </c>
@@ -8473,36 +8690,37 @@
       <c r="I30" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="292" t="s">
+      <c r="J30" s="293"/>
+      <c r="K30" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K30" s="202" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="200" t="s">
+      <c r="L30" s="202" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="M30" s="199" t="s">
+      <c r="N30" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="201" t="s">
+      <c r="O30" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="201" t="s">
+      <c r="P30" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="P30" s="200"/>
-      <c r="Q30" s="198" t="s">
+      <c r="Q30" s="200"/>
+      <c r="R30" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="R30" s="199" t="s">
+      <c r="S30" s="199" t="s">
         <v>227</v>
       </c>
-      <c r="S30" s="146"/>
       <c r="T30" s="146"/>
       <c r="U30" s="146"/>
-    </row>
-    <row r="31" spans="1:21" s="299" customFormat="1" ht="208.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V30" s="146"/>
+    </row>
+    <row r="31" spans="1:22" s="299" customFormat="1" ht="208.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="302" t="s">
         <v>168</v>
       </c>
@@ -8530,36 +8748,37 @@
       <c r="I31" s="303" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="304"/>
-      <c r="K31" s="303" t="s">
+      <c r="J31" s="303"/>
+      <c r="K31" s="304"/>
+      <c r="L31" s="303" t="s">
         <v>151</v>
       </c>
-      <c r="L31" s="304" t="s">
+      <c r="M31" s="304" t="s">
         <v>151</v>
       </c>
-      <c r="M31" s="304" t="s">
+      <c r="N31" s="304" t="s">
         <v>49</v>
       </c>
-      <c r="N31" s="305" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="303" t="s">
+      <c r="O31" s="305" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="303" t="s">
         <v>50</v>
       </c>
-      <c r="P31" s="304" t="s">
+      <c r="Q31" s="304" t="s">
         <v>290</v>
       </c>
-      <c r="Q31" s="304" t="s">
+      <c r="R31" s="304" t="s">
         <v>212</v>
       </c>
-      <c r="R31" s="304" t="s">
+      <c r="S31" s="304" t="s">
         <v>519</v>
       </c>
-      <c r="S31" s="303"/>
       <c r="T31" s="303"/>
       <c r="U31" s="303"/>
-    </row>
-    <row r="32" spans="1:21" s="26" customFormat="1" ht="253.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V31" s="303"/>
+    </row>
+    <row r="32" spans="1:22" s="26" customFormat="1" ht="253.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="282" t="s">
         <v>169</v>
       </c>
@@ -8587,38 +8806,39 @@
       <c r="I32" s="285" t="s">
         <v>229</v>
       </c>
-      <c r="J32" s="292" t="s">
+      <c r="J32" s="293"/>
+      <c r="K32" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K32" s="285" t="s">
+      <c r="L32" s="285" t="s">
         <v>151</v>
       </c>
-      <c r="L32" s="284" t="s">
+      <c r="M32" s="284" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="283" t="s">
+      <c r="N32" s="283" t="s">
         <v>155</v>
       </c>
-      <c r="N32" s="286" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="284" t="s">
+      <c r="O32" s="286" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="284" t="s">
         <v>154</v>
       </c>
-      <c r="P32" s="284" t="s">
+      <c r="Q32" s="284" t="s">
         <v>292</v>
       </c>
-      <c r="Q32" s="287" t="s">
+      <c r="R32" s="287" t="s">
         <v>228</v>
       </c>
-      <c r="R32" s="283" t="s">
+      <c r="S32" s="283" t="s">
         <v>231</v>
       </c>
-      <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
-    </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V32" s="27"/>
+    </row>
+    <row r="33" spans="1:22" s="28" customFormat="1" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="289" t="s">
         <v>170</v>
       </c>
@@ -8646,36 +8866,37 @@
       <c r="I33" s="294" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="292" t="s">
+      <c r="J33" s="293"/>
+      <c r="K33" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="294" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="292" t="s">
-        <v>67</v>
+      <c r="L33" s="294" t="s">
+        <v>20</v>
       </c>
       <c r="M33" s="292" t="s">
         <v>67</v>
       </c>
-      <c r="N33" s="293" t="s">
+      <c r="N33" s="292" t="s">
         <v>67</v>
       </c>
       <c r="O33" s="293" t="s">
         <v>67</v>
       </c>
-      <c r="P33" s="292" t="s">
+      <c r="P33" s="293" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q33" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="Q33" s="292" t="s">
+      <c r="R33" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="R33" s="291"/>
-      <c r="S33" s="29"/>
+      <c r="S33" s="291"/>
       <c r="T33" s="29"/>
       <c r="U33" s="29"/>
-    </row>
-    <row r="34" spans="1:21" s="120" customFormat="1" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V33" s="29"/>
+    </row>
+    <row r="34" spans="1:22" s="120" customFormat="1" ht="109.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="204" t="s">
         <v>278</v>
       </c>
@@ -8703,36 +8924,37 @@
       <c r="I34" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="292" t="s">
+      <c r="J34" s="293"/>
+      <c r="K34" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="207" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="205" t="s">
+      <c r="L34" s="207" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="205" t="s">
         <v>151</v>
       </c>
-      <c r="M34" s="211" t="s">
+      <c r="N34" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="N34" s="206"/>
-      <c r="O34" s="206" t="s">
+      <c r="O34" s="206"/>
+      <c r="P34" s="206" t="s">
         <v>370</v>
       </c>
-      <c r="P34" s="206" t="s">
+      <c r="Q34" s="206" t="s">
         <v>367</v>
       </c>
-      <c r="Q34" s="205" t="s">
+      <c r="R34" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="R34" s="208" t="s">
+      <c r="S34" s="208" t="s">
         <v>467</v>
       </c>
-      <c r="S34" s="203"/>
       <c r="T34" s="203"/>
       <c r="U34" s="203"/>
-    </row>
-    <row r="35" spans="1:21" s="299" customFormat="1" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V34" s="203"/>
+    </row>
+    <row r="35" spans="1:22" s="299" customFormat="1" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="302" t="s">
         <v>279</v>
       </c>
@@ -8760,36 +8982,37 @@
       <c r="I35" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="304"/>
-      <c r="K35" s="307" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="308" t="s">
-        <v>151</v>
+      <c r="J35" s="303"/>
+      <c r="K35" s="304"/>
+      <c r="L35" s="307" t="s">
+        <v>20</v>
       </c>
       <c r="M35" s="308" t="s">
         <v>151</v>
       </c>
-      <c r="N35" s="309" t="s">
-        <v>20</v>
+      <c r="N35" s="308" t="s">
+        <v>151</v>
       </c>
       <c r="O35" s="309" t="s">
         <v>20</v>
       </c>
-      <c r="P35" s="303" t="s">
+      <c r="P35" s="309" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="303" t="s">
         <v>281</v>
       </c>
-      <c r="Q35" s="304" t="s">
+      <c r="R35" s="304" t="s">
         <v>78</v>
       </c>
-      <c r="R35" s="310" t="s">
+      <c r="S35" s="310" t="s">
         <v>368</v>
       </c>
-      <c r="S35" s="303"/>
       <c r="T35" s="303"/>
       <c r="U35" s="303"/>
-    </row>
-    <row r="36" spans="1:21" s="120" customFormat="1" ht="108.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V35" s="303"/>
+    </row>
+    <row r="36" spans="1:22" s="120" customFormat="1" ht="108.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="210" t="s">
         <v>282</v>
       </c>
@@ -8817,36 +9040,37 @@
       <c r="I36" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="292" t="s">
+      <c r="J36" s="293"/>
+      <c r="K36" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="216" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="215" t="s">
+      <c r="L36" s="216" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="215" t="s">
         <v>151</v>
       </c>
-      <c r="M36" s="211" t="s">
+      <c r="N36" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="N36" s="215" t="s">
+      <c r="O36" s="215" t="s">
         <v>244</v>
       </c>
-      <c r="O36" s="215" t="s">
+      <c r="P36" s="215" t="s">
         <v>284</v>
       </c>
-      <c r="P36" s="213" t="s">
+      <c r="Q36" s="213" t="s">
         <v>281</v>
       </c>
-      <c r="Q36" s="212" t="s">
+      <c r="R36" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="R36" s="273"/>
-      <c r="S36" s="206"/>
+      <c r="S36" s="273"/>
       <c r="T36" s="206"/>
       <c r="U36" s="206"/>
-    </row>
-    <row r="37" spans="1:21" s="120" customFormat="1" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V36" s="206"/>
+    </row>
+    <row r="37" spans="1:22" s="120" customFormat="1" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="210" t="s">
         <v>285</v>
       </c>
@@ -8872,36 +9096,37 @@
       <c r="I37" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="292" t="s">
+      <c r="J37" s="293"/>
+      <c r="K37" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K37" s="216" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="215" t="s">
+      <c r="L37" s="216" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="215" t="s">
         <v>151</v>
       </c>
-      <c r="M37" s="215" t="s">
+      <c r="N37" s="215" t="s">
         <v>293</v>
       </c>
-      <c r="N37" s="215" t="s">
+      <c r="O37" s="215" t="s">
         <v>244</v>
       </c>
-      <c r="O37" s="217" t="s">
+      <c r="P37" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="P37" s="213" t="s">
+      <c r="Q37" s="213" t="s">
         <v>281</v>
       </c>
-      <c r="Q37" s="212" t="s">
+      <c r="R37" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="R37" s="273"/>
-      <c r="S37" s="206"/>
+      <c r="S37" s="273"/>
       <c r="T37" s="206"/>
       <c r="U37" s="206"/>
-    </row>
-    <row r="38" spans="1:21" s="120" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V37" s="206"/>
+    </row>
+    <row r="38" spans="1:22" s="120" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="210" t="s">
         <v>287</v>
       </c>
@@ -8929,36 +9154,37 @@
       <c r="I38" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="292" t="s">
+      <c r="J38" s="293"/>
+      <c r="K38" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="216" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="215" t="s">
+      <c r="L38" s="216" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="215" t="s">
         <v>151</v>
       </c>
-      <c r="M38" s="215" t="s">
+      <c r="N38" s="215" t="s">
         <v>143</v>
       </c>
-      <c r="N38" s="215" t="s">
+      <c r="O38" s="215" t="s">
         <v>244</v>
       </c>
-      <c r="O38" s="215" t="s">
+      <c r="P38" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="P38" s="213" t="s">
+      <c r="Q38" s="213" t="s">
         <v>281</v>
       </c>
-      <c r="Q38" s="212" t="s">
+      <c r="R38" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="R38" s="273"/>
-      <c r="S38" s="206"/>
+      <c r="S38" s="273"/>
       <c r="T38" s="206"/>
       <c r="U38" s="206"/>
-    </row>
-    <row r="39" spans="1:21" s="299" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V38" s="206"/>
+    </row>
+    <row r="39" spans="1:22" s="299" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="302">
         <v>16</v>
       </c>
@@ -8986,32 +9212,33 @@
       <c r="I39" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="304"/>
-      <c r="K39" s="305" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="304" t="s">
-        <v>151</v>
+      <c r="J39" s="303"/>
+      <c r="K39" s="304"/>
+      <c r="L39" s="305" t="s">
+        <v>20</v>
       </c>
       <c r="M39" s="304" t="s">
         <v>151</v>
       </c>
-      <c r="N39" s="305" t="s">
-        <v>20</v>
+      <c r="N39" s="304" t="s">
+        <v>151</v>
       </c>
       <c r="O39" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="303" t="s">
+      <c r="P39" s="305" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="303" t="s">
         <v>373</v>
       </c>
-      <c r="Q39" s="303"/>
       <c r="R39" s="303"/>
       <c r="S39" s="303"/>
       <c r="T39" s="303"/>
       <c r="U39" s="303"/>
-    </row>
-    <row r="40" spans="1:21" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V39" s="303"/>
+    </row>
+    <row r="40" spans="1:22" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="133">
         <v>16.100000000000001</v>
       </c>
@@ -9039,38 +9266,41 @@
       <c r="I40" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="292" t="s">
+      <c r="J40" s="293" t="s">
+        <v>590</v>
+      </c>
+      <c r="K40" s="292" t="s">
         <v>547</v>
       </c>
-      <c r="K40" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="123" t="s">
+      <c r="L40" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="M40" s="123" t="s">
+      <c r="N40" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="O40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O40" s="11" t="s">
+      <c r="P40" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q40" s="31" t="s">
+      <c r="R40" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="R40" s="32" t="s">
+      <c r="S40" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="S40" s="11"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
-    </row>
-    <row r="41" spans="1:21" ht="232.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V40" s="11"/>
+    </row>
+    <row r="41" spans="1:22" ht="232.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="133">
         <v>16.3</v>
       </c>
@@ -9098,17 +9328,17 @@
       <c r="I41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="292" t="s">
+      <c r="J41" s="293" t="s">
+        <v>591</v>
+      </c>
+      <c r="K41" s="292" t="s">
         <v>547</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="L41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L41" s="244" t="s">
+      <c r="M41" s="244" t="s">
         <v>151</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="N41" s="11" t="s">
         <v>60</v>
@@ -9116,20 +9346,23 @@
       <c r="O41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P41" s="230" t="s">
+      <c r="P41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q41" s="230" t="s">
         <v>372</v>
       </c>
-      <c r="Q41" s="33" t="s">
+      <c r="R41" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="R41" s="34" t="s">
+      <c r="S41" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="S41" s="11"/>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
-    </row>
-    <row r="42" spans="1:21" s="299" customFormat="1" ht="309.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V41" s="11"/>
+    </row>
+    <row r="42" spans="1:22" s="299" customFormat="1" ht="309.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="302">
         <v>18</v>
       </c>
@@ -9157,34 +9390,35 @@
       <c r="I42" s="304" t="s">
         <v>241</v>
       </c>
-      <c r="J42" s="304"/>
-      <c r="K42" s="305" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="303" t="s">
-        <v>151</v>
+      <c r="J42" s="303"/>
+      <c r="K42" s="304"/>
+      <c r="L42" s="305" t="s">
+        <v>20</v>
       </c>
       <c r="M42" s="303" t="s">
         <v>151</v>
       </c>
-      <c r="N42" s="305" t="s">
-        <v>20</v>
+      <c r="N42" s="303" t="s">
+        <v>151</v>
       </c>
       <c r="O42" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="303" t="s">
+      <c r="P42" s="305" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="303" t="s">
         <v>242</v>
       </c>
-      <c r="Q42" s="303"/>
-      <c r="R42" s="301" t="s">
+      <c r="R42" s="303"/>
+      <c r="S42" s="301" t="s">
         <v>520</v>
       </c>
-      <c r="S42" s="303"/>
       <c r="T42" s="303"/>
       <c r="U42" s="303"/>
-    </row>
-    <row r="43" spans="1:21" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V42" s="303"/>
+    </row>
+    <row r="43" spans="1:22" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="133">
         <v>18.100000000000001</v>
       </c>
@@ -9212,38 +9446,39 @@
       <c r="I43" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="292" t="s">
+      <c r="J43" s="293"/>
+      <c r="K43" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K43" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="122" t="s">
+      <c r="L43" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M43" s="54" t="s">
+      <c r="N43" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="O43" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="O43" s="121" t="s">
+      <c r="P43" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="P43" s="121" t="s">
+      <c r="Q43" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="Q43" s="10" t="s">
+      <c r="R43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="R43" s="35" t="s">
+      <c r="S43" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
-    </row>
-    <row r="44" spans="1:21" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V43" s="11"/>
+    </row>
+    <row r="44" spans="1:22" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="133">
         <v>18.2</v>
       </c>
@@ -9271,38 +9506,39 @@
       <c r="I44" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="292" t="s">
+      <c r="J44" s="293"/>
+      <c r="K44" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K44" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="122" t="s">
+      <c r="L44" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M44" s="54" t="s">
+      <c r="N44" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="N44" s="146" t="s">
+      <c r="O44" s="146" t="s">
         <v>244</v>
       </c>
-      <c r="O44" s="121" t="s">
+      <c r="P44" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="P44" s="121" t="s">
+      <c r="Q44" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="Q44" s="37" t="s">
+      <c r="R44" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="R44" s="36" t="s">
+      <c r="S44" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="S44" s="11"/>
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
-    </row>
-    <row r="45" spans="1:21" s="14" customFormat="1" ht="159" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V44" s="11"/>
+    </row>
+    <row r="45" spans="1:22" s="14" customFormat="1" ht="159" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="133" t="s">
         <v>171</v>
       </c>
@@ -9330,38 +9566,39 @@
       <c r="I45" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="292" t="s">
+      <c r="J45" s="293"/>
+      <c r="K45" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K45" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="122" t="s">
+      <c r="L45" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M45" s="123" t="s">
+      <c r="N45" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N45" s="146" t="s">
+      <c r="O45" s="146" t="s">
         <v>244</v>
       </c>
-      <c r="O45" s="15" t="s">
+      <c r="P45" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="P45" s="121" t="s">
+      <c r="Q45" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="Q45" s="38" t="s">
+      <c r="R45" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="R45" s="40" t="s">
+      <c r="S45" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-    </row>
-    <row r="46" spans="1:21" s="39" customFormat="1" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V45" s="15"/>
+    </row>
+    <row r="46" spans="1:22" s="39" customFormat="1" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="133" t="s">
         <v>172</v>
       </c>
@@ -9389,36 +9626,37 @@
       <c r="I46" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="292" t="s">
+      <c r="J46" s="293"/>
+      <c r="K46" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K46" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="122" t="s">
+      <c r="L46" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M46" s="54" t="s">
+      <c r="N46" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="N46" s="146" t="s">
+      <c r="O46" s="146" t="s">
         <v>244</v>
       </c>
-      <c r="O46" s="121" t="s">
+      <c r="P46" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="42" t="s">
+      <c r="Q46" s="40"/>
+      <c r="R46" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="R46" s="41" t="s">
+      <c r="S46" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="S46" s="40"/>
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
-    </row>
-    <row r="47" spans="1:21" s="43" customFormat="1" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V46" s="40"/>
+    </row>
+    <row r="47" spans="1:22" s="43" customFormat="1" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="137" t="s">
         <v>173</v>
       </c>
@@ -9446,38 +9684,39 @@
       <c r="I47" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="292" t="s">
+      <c r="J47" s="293"/>
+      <c r="K47" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K47" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="122" t="s">
+      <c r="L47" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M47" s="123" t="s">
+      <c r="N47" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N47" s="42" t="s">
+      <c r="O47" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="O47" s="44" t="s">
+      <c r="P47" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="P47" s="44" t="s">
+      <c r="Q47" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="Q47" s="10" t="s">
+      <c r="R47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R47" s="44" t="s">
+      <c r="S47" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="S47" s="44"/>
       <c r="T47" s="44"/>
       <c r="U47" s="44"/>
-    </row>
-    <row r="48" spans="1:21" s="5" customFormat="1" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V47" s="44"/>
+    </row>
+    <row r="48" spans="1:22" s="5" customFormat="1" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="137">
         <v>18.5</v>
       </c>
@@ -9505,36 +9744,37 @@
       <c r="I48" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="292" t="s">
+      <c r="J48" s="293"/>
+      <c r="K48" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K48" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="122" t="s">
+      <c r="L48" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M48" s="44" t="s">
+      <c r="N48" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="N48" s="145" t="s">
+      <c r="O48" s="145" t="s">
         <v>244</v>
       </c>
-      <c r="O48" s="44" t="s">
+      <c r="P48" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="P48" s="45" t="s">
+      <c r="Q48" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="Q48" s="46" t="s">
+      <c r="R48" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="R48" s="44"/>
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
       <c r="U48" s="44"/>
-    </row>
-    <row r="49" spans="1:21" s="47" customFormat="1" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V48" s="44"/>
+    </row>
+    <row r="49" spans="1:22" s="47" customFormat="1" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="137" t="s">
         <v>174</v>
       </c>
@@ -9562,38 +9802,39 @@
       <c r="I49" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="292" t="s">
+      <c r="J49" s="293"/>
+      <c r="K49" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K49" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="122" t="s">
+      <c r="L49" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="M49" s="123" t="s">
+      <c r="N49" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="N49" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="O49" s="46" t="s">
+      <c r="O49" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="P49" s="46" t="s">
+      <c r="Q49" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="Q49" s="48" t="s">
+      <c r="R49" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="R49" s="51" t="s">
+      <c r="S49" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="S49" s="46"/>
       <c r="T49" s="46"/>
       <c r="U49" s="46"/>
-    </row>
-    <row r="50" spans="1:21" s="50" customFormat="1" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V49" s="46"/>
+    </row>
+    <row r="50" spans="1:22" s="50" customFormat="1" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="137" t="s">
         <v>175</v>
       </c>
@@ -9621,38 +9862,39 @@
       <c r="I50" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="292" t="s">
+      <c r="J50" s="293"/>
+      <c r="K50" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K50" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="122" t="s">
+      <c r="L50" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="M50" s="123" t="s">
+      <c r="N50" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="N50" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="O50" s="123" t="s">
+      <c r="O50" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="P50" s="52" t="s">
+      <c r="Q50" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="Q50" s="53" t="s">
+      <c r="R50" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="R50" s="54" t="s">
+      <c r="S50" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="S50" s="49"/>
       <c r="T50" s="49"/>
       <c r="U50" s="49"/>
-    </row>
-    <row r="51" spans="1:21" s="50" customFormat="1" ht="344.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V50" s="49"/>
+    </row>
+    <row r="51" spans="1:22" s="50" customFormat="1" ht="344.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="137" t="s">
         <v>267</v>
       </c>
@@ -9680,38 +9922,39 @@
       <c r="I51" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="292" t="s">
+      <c r="J51" s="293"/>
+      <c r="K51" s="292" t="s">
         <v>549</v>
       </c>
-      <c r="K51" s="154" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="144" t="s">
+      <c r="L51" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="M51" s="149" t="s">
+      <c r="N51" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="N51" s="149" t="s">
+      <c r="O51" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="O51" s="149" t="s">
+      <c r="P51" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="P51" s="149" t="s">
+      <c r="Q51" s="149" t="s">
         <v>266</v>
       </c>
-      <c r="Q51" s="152" t="s">
+      <c r="R51" s="152" t="s">
         <v>250</v>
       </c>
-      <c r="R51" s="148" t="s">
+      <c r="S51" s="148" t="s">
         <v>522</v>
       </c>
-      <c r="S51" s="149"/>
       <c r="T51" s="149"/>
       <c r="U51" s="149"/>
-    </row>
-    <row r="52" spans="1:21" s="8" customFormat="1" ht="277.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V51" s="149"/>
+    </row>
+    <row r="52" spans="1:22" s="8" customFormat="1" ht="277.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="133" t="s">
         <v>252</v>
       </c>
@@ -9739,38 +9982,39 @@
       <c r="I52" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="292" t="s">
+      <c r="J52" s="293"/>
+      <c r="K52" s="292" t="s">
         <v>548</v>
       </c>
-      <c r="K52" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="122" t="s">
+      <c r="L52" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="M52" s="123" t="s">
+      <c r="N52" s="123" t="s">
         <v>489</v>
       </c>
-      <c r="N52" s="44" t="s">
+      <c r="O52" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="O52" s="44" t="s">
+      <c r="P52" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="P52" s="55" t="s">
+      <c r="Q52" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="Q52" s="56" t="s">
+      <c r="R52" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="R52" s="55" t="s">
+      <c r="S52" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="S52" s="44"/>
       <c r="T52" s="44"/>
       <c r="U52" s="44"/>
-    </row>
-    <row r="53" spans="1:21" ht="231" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V52" s="44"/>
+    </row>
+    <row r="53" spans="1:22" ht="231" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="133">
         <v>21</v>
       </c>
@@ -9798,38 +10042,39 @@
       <c r="I53" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="292" t="s">
+      <c r="J53" s="293"/>
+      <c r="K53" s="292" t="s">
         <v>550</v>
       </c>
-      <c r="K53" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="122" t="s">
+      <c r="L53" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M53" s="123" t="s">
+      <c r="N53" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="O53" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="P53" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="Q53" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="Q53" s="57" t="s">
+      <c r="R53" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="R53" s="155" t="s">
+      <c r="S53" s="155" t="s">
         <v>523</v>
       </c>
-      <c r="S53" s="11"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
-    </row>
-    <row r="54" spans="1:21" ht="183" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V53" s="11"/>
+    </row>
+    <row r="54" spans="1:22" ht="183" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="130">
         <v>23</v>
       </c>
@@ -9857,38 +10102,39 @@
       <c r="I54" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="292" t="s">
+      <c r="J54" s="293"/>
+      <c r="K54" s="292" t="s">
         <v>404</v>
       </c>
-      <c r="K54" s="121" t="s">
-        <v>20</v>
-      </c>
       <c r="L54" s="121" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M54" s="121" t="s">
         <v>47</v>
       </c>
       <c r="N54" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="O54" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="Q54" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="155" t="s">
+      <c r="R54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="155" t="s">
         <v>524</v>
       </c>
-      <c r="S54" s="11"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
-    </row>
-    <row r="55" spans="1:21" s="120" customFormat="1" ht="268.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V54" s="11"/>
+    </row>
+    <row r="55" spans="1:22" s="120" customFormat="1" ht="268.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="133" t="s">
         <v>210</v>
       </c>
@@ -9916,10 +10162,8 @@
       <c r="I55" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="292"/>
-      <c r="K55" s="154" t="s">
-        <v>20</v>
-      </c>
+      <c r="J55" s="293"/>
+      <c r="K55" s="292"/>
       <c r="L55" s="154" t="s">
         <v>20</v>
       </c>
@@ -9938,10 +10182,10 @@
       <c r="Q55" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="R55" s="156" t="s">
-        <v>20</v>
-      </c>
-      <c r="S55" s="154" t="s">
+      <c r="R55" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="156" t="s">
         <v>20</v>
       </c>
       <c r="T55" s="154" t="s">
@@ -9950,8 +10194,11 @@
       <c r="U55" s="154" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" s="120" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V55" s="154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="120" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="204" t="s">
         <v>256</v>
       </c>
@@ -9979,10 +10226,8 @@
       <c r="I56" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="292"/>
-      <c r="K56" s="124" t="s">
-        <v>20</v>
-      </c>
+      <c r="J56" s="293"/>
+      <c r="K56" s="292"/>
       <c r="L56" s="124" t="s">
         <v>20</v>
       </c>
@@ -10001,10 +10246,10 @@
       <c r="Q56" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S56" s="124" t="s">
+      <c r="R56" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="9" t="s">
         <v>20</v>
       </c>
       <c r="T56" s="124" t="s">
@@ -10013,8 +10258,11 @@
       <c r="U56" s="124" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" s="299" customFormat="1" ht="116.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V56" s="124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="299" customFormat="1" ht="116.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="302" t="s">
         <v>176</v>
       </c>
@@ -10042,36 +10290,37 @@
       <c r="I57" s="312" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="304"/>
-      <c r="K57" s="312" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" s="303" t="s">
-        <v>151</v>
+      <c r="J57" s="303"/>
+      <c r="K57" s="304"/>
+      <c r="L57" s="312" t="s">
+        <v>20</v>
       </c>
       <c r="M57" s="303" t="s">
         <v>151</v>
       </c>
-      <c r="N57" s="305" t="s">
-        <v>20</v>
+      <c r="N57" s="303" t="s">
+        <v>151</v>
       </c>
       <c r="O57" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="303" t="s">
+      <c r="P57" s="305" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="303" t="s">
         <v>314</v>
       </c>
-      <c r="Q57" s="301" t="s">
+      <c r="R57" s="301" t="s">
         <v>60</v>
       </c>
-      <c r="R57" s="303" t="s">
+      <c r="S57" s="303" t="s">
         <v>156</v>
       </c>
-      <c r="S57" s="303"/>
       <c r="T57" s="303"/>
       <c r="U57" s="303"/>
-    </row>
-    <row r="58" spans="1:21" s="229" customFormat="1" ht="227.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V57" s="303"/>
+    </row>
+    <row r="58" spans="1:22" s="229" customFormat="1" ht="227.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="225" t="s">
         <v>177</v>
       </c>
@@ -10099,38 +10348,39 @@
       <c r="I58" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="292" t="s">
+      <c r="J58" s="293"/>
+      <c r="K58" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K58" s="207" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="226" t="s">
+      <c r="L58" s="207" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="M58" s="232" t="s">
+      <c r="N58" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="N58" s="232" t="s">
+      <c r="O58" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="O58" s="232" t="s">
+      <c r="P58" s="232" t="s">
         <v>115</v>
       </c>
-      <c r="P58" s="233" t="s">
+      <c r="Q58" s="233" t="s">
         <v>499</v>
       </c>
-      <c r="Q58" s="230" t="s">
+      <c r="R58" s="230" t="s">
         <v>60</v>
       </c>
-      <c r="R58" s="239" t="s">
+      <c r="S58" s="239" t="s">
         <v>315</v>
       </c>
-      <c r="S58" s="233"/>
       <c r="T58" s="233"/>
       <c r="U58" s="233"/>
-    </row>
-    <row r="59" spans="1:21" s="229" customFormat="1" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V58" s="233"/>
+    </row>
+    <row r="59" spans="1:22" s="229" customFormat="1" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="225" t="s">
         <v>178</v>
       </c>
@@ -10158,36 +10408,37 @@
       <c r="I59" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="292" t="s">
+      <c r="J59" s="293"/>
+      <c r="K59" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K59" s="207" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" s="226" t="s">
+      <c r="L59" s="207" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="M59" s="232" t="s">
+      <c r="N59" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="N59" s="232" t="s">
+      <c r="O59" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="O59" s="232" t="s">
+      <c r="P59" s="232" t="s">
         <v>471</v>
       </c>
-      <c r="P59" s="233"/>
-      <c r="Q59" s="230" t="s">
+      <c r="Q59" s="233"/>
+      <c r="R59" s="230" t="s">
         <v>60</v>
       </c>
-      <c r="R59" s="233" t="s">
+      <c r="S59" s="233" t="s">
         <v>470</v>
       </c>
-      <c r="S59" s="233"/>
       <c r="T59" s="233"/>
       <c r="U59" s="233"/>
-    </row>
-    <row r="60" spans="1:21" s="67" customFormat="1" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V59" s="233"/>
+    </row>
+    <row r="60" spans="1:22" s="67" customFormat="1" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="133" t="s">
         <v>179</v>
       </c>
@@ -10215,38 +10466,39 @@
       <c r="I60" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="292" t="s">
+      <c r="J60" s="293"/>
+      <c r="K60" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K60" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" s="122" t="s">
+      <c r="L60" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M60" s="123" t="s">
+      <c r="N60" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N60" s="232" t="s">
+      <c r="O60" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="O60" s="68" t="s">
+      <c r="P60" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="P60" s="68" t="s">
+      <c r="Q60" s="68" t="s">
         <v>472</v>
       </c>
-      <c r="Q60" s="70" t="s">
+      <c r="R60" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="R60" s="269" t="s">
+      <c r="S60" s="269" t="s">
         <v>469</v>
       </c>
-      <c r="S60" s="68"/>
       <c r="T60" s="68"/>
       <c r="U60" s="68"/>
-    </row>
-    <row r="61" spans="1:21" s="71" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V60" s="68"/>
+    </row>
+    <row r="61" spans="1:22" s="71" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="223" t="s">
         <v>323</v>
       </c>
@@ -10274,38 +10526,39 @@
       <c r="I61" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="292" t="s">
+      <c r="J61" s="293"/>
+      <c r="K61" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K61" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" s="122" t="s">
+      <c r="L61" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M61" s="54" t="s">
+      <c r="N61" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="N61" s="232" t="s">
+      <c r="O61" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="O61" s="121" t="s">
+      <c r="P61" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="P61" s="72" t="s">
+      <c r="Q61" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="Q61" s="75" t="s">
+      <c r="R61" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="R61" s="74" t="s">
+      <c r="S61" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="S61" s="72"/>
       <c r="T61" s="72"/>
       <c r="U61" s="72"/>
-    </row>
-    <row r="62" spans="1:21" s="299" customFormat="1" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V61" s="72"/>
+    </row>
+    <row r="62" spans="1:22" s="299" customFormat="1" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="302" t="s">
         <v>180</v>
       </c>
@@ -10333,26 +10586,27 @@
       <c r="I62" s="312" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="304"/>
-      <c r="K62" s="312" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" s="303" t="s">
-        <v>151</v>
+      <c r="J62" s="303"/>
+      <c r="K62" s="304"/>
+      <c r="L62" s="312" t="s">
+        <v>20</v>
       </c>
       <c r="M62" s="303" t="s">
         <v>151</v>
       </c>
-      <c r="N62" s="303"/>
+      <c r="N62" s="303" t="s">
+        <v>151</v>
+      </c>
       <c r="O62" s="303"/>
       <c r="P62" s="303"/>
-      <c r="Q62" s="313"/>
-      <c r="R62" s="303"/>
+      <c r="Q62" s="303"/>
+      <c r="R62" s="313"/>
       <c r="S62" s="303"/>
       <c r="T62" s="303"/>
       <c r="U62" s="303"/>
-    </row>
-    <row r="63" spans="1:21" s="73" customFormat="1" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V62" s="303"/>
+    </row>
+    <row r="63" spans="1:22" s="73" customFormat="1" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="225" t="s">
         <v>181</v>
       </c>
@@ -10380,34 +10634,35 @@
       <c r="I63" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="292" t="s">
+      <c r="J63" s="293"/>
+      <c r="K63" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K63" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" s="122" t="s">
+      <c r="L63" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M63" s="123" t="s">
+      <c r="N63" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N63" s="74"/>
-      <c r="O63" s="276" t="s">
+      <c r="O63" s="74"/>
+      <c r="P63" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="P63" s="74"/>
-      <c r="Q63" s="140" t="s">
+      <c r="Q63" s="74"/>
+      <c r="R63" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="R63" s="252" t="s">
+      <c r="S63" s="252" t="s">
         <v>108</v>
       </c>
-      <c r="S63" s="74"/>
       <c r="T63" s="74"/>
       <c r="U63" s="74"/>
-    </row>
-    <row r="64" spans="1:21" s="76" customFormat="1" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V63" s="74"/>
+    </row>
+    <row r="64" spans="1:22" s="76" customFormat="1" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="225" t="s">
         <v>182</v>
       </c>
@@ -10435,34 +10690,35 @@
       <c r="I64" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="292" t="s">
+      <c r="J64" s="293"/>
+      <c r="K64" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K64" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" s="122" t="s">
+      <c r="L64" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M64" s="54" t="s">
+      <c r="N64" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="N64" s="77"/>
-      <c r="O64" s="77" t="s">
+      <c r="O64" s="77"/>
+      <c r="P64" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="P64" s="77"/>
-      <c r="Q64" s="140" t="s">
+      <c r="Q64" s="77"/>
+      <c r="R64" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="R64" s="80" t="s">
+      <c r="S64" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="S64" s="77"/>
       <c r="T64" s="77"/>
       <c r="U64" s="77"/>
-    </row>
-    <row r="65" spans="1:21" s="78" customFormat="1" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V64" s="77"/>
+    </row>
+    <row r="65" spans="1:22" s="78" customFormat="1" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="225" t="s">
         <v>183</v>
       </c>
@@ -10490,34 +10746,35 @@
       <c r="I65" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="292" t="s">
+      <c r="J65" s="293"/>
+      <c r="K65" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K65" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" s="122" t="s">
+      <c r="L65" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M65" s="123" t="s">
+      <c r="N65" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79" t="s">
+      <c r="O65" s="79"/>
+      <c r="P65" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="P65" s="79"/>
-      <c r="Q65" s="81" t="s">
+      <c r="Q65" s="79"/>
+      <c r="R65" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="R65" s="84" t="s">
+      <c r="S65" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="S65" s="79"/>
       <c r="T65" s="79"/>
       <c r="U65" s="79"/>
-    </row>
-    <row r="66" spans="1:21" s="299" customFormat="1" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V65" s="79"/>
+    </row>
+    <row r="66" spans="1:22" s="299" customFormat="1" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="302" t="s">
         <v>184</v>
       </c>
@@ -10545,30 +10802,31 @@
       <c r="I66" s="312" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="304"/>
-      <c r="K66" s="312" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" s="303" t="s">
+      <c r="J66" s="303"/>
+      <c r="K66" s="304"/>
+      <c r="L66" s="312" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="303" t="s">
         <v>46</v>
       </c>
-      <c r="M66" s="312" t="s">
-        <v>20</v>
-      </c>
-      <c r="N66" s="303"/>
+      <c r="N66" s="312" t="s">
+        <v>20</v>
+      </c>
       <c r="O66" s="303"/>
       <c r="P66" s="303"/>
-      <c r="Q66" s="314" t="s">
+      <c r="Q66" s="303"/>
+      <c r="R66" s="314" t="s">
         <v>111</v>
       </c>
-      <c r="R66" s="313" t="s">
+      <c r="S66" s="313" t="s">
         <v>113</v>
       </c>
-      <c r="S66" s="303"/>
       <c r="T66" s="303"/>
       <c r="U66" s="303"/>
-    </row>
-    <row r="67" spans="1:21" s="82" customFormat="1" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V66" s="303"/>
+    </row>
+    <row r="67" spans="1:22" s="82" customFormat="1" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="133" t="s">
         <v>185</v>
       </c>
@@ -10596,30 +10854,31 @@
       <c r="I67" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="292" t="s">
+      <c r="J67" s="293"/>
+      <c r="K67" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K67" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" s="83" t="s">
+      <c r="L67" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="M67" s="83" t="s">
+      <c r="N67" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83" t="s">
+      <c r="O67" s="83"/>
+      <c r="P67" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="84"/>
+      <c r="Q67" s="83"/>
       <c r="R67" s="84"/>
-      <c r="S67" s="83"/>
+      <c r="S67" s="84"/>
       <c r="T67" s="83"/>
       <c r="U67" s="83"/>
-    </row>
-    <row r="68" spans="1:21" s="85" customFormat="1" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V67" s="83"/>
+    </row>
+    <row r="68" spans="1:22" s="85" customFormat="1" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="133" t="s">
         <v>186</v>
       </c>
@@ -10647,34 +10906,35 @@
       <c r="I68" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="292" t="s">
+      <c r="J68" s="293"/>
+      <c r="K68" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K68" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" s="121" t="s">
+      <c r="L68" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="M68" s="86" t="s">
+      <c r="N68" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="N68" s="86"/>
-      <c r="O68" s="123" t="s">
+      <c r="O68" s="86"/>
+      <c r="P68" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="P68" s="86"/>
-      <c r="Q68" s="87" t="s">
+      <c r="Q68" s="86"/>
+      <c r="R68" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="R68" s="90" t="s">
+      <c r="S68" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="S68" s="86"/>
       <c r="T68" s="86"/>
       <c r="U68" s="86"/>
-    </row>
-    <row r="69" spans="1:21" s="88" customFormat="1" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V68" s="86"/>
+    </row>
+    <row r="69" spans="1:22" s="88" customFormat="1" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="130" t="s">
         <v>187</v>
       </c>
@@ -10702,34 +10962,35 @@
       <c r="I69" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="292" t="s">
+      <c r="J69" s="293"/>
+      <c r="K69" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K69" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" s="121" t="s">
+      <c r="L69" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="M69" s="89" t="s">
+      <c r="N69" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N69" s="89"/>
-      <c r="O69" s="89" t="s">
+      <c r="O69" s="89"/>
+      <c r="P69" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="P69" s="89"/>
-      <c r="Q69" s="140" t="s">
+      <c r="Q69" s="89"/>
+      <c r="R69" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="R69" s="93" t="s">
+      <c r="S69" s="93" t="s">
         <v>526</v>
       </c>
-      <c r="S69" s="89"/>
       <c r="T69" s="89"/>
       <c r="U69" s="89"/>
-    </row>
-    <row r="70" spans="1:21" s="91" customFormat="1" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V69" s="89"/>
+    </row>
+    <row r="70" spans="1:22" s="91" customFormat="1" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="133" t="s">
         <v>188</v>
       </c>
@@ -10757,36 +11018,37 @@
       <c r="I70" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="292" t="s">
+      <c r="J70" s="293"/>
+      <c r="K70" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K70" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="121" t="s">
+      <c r="L70" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="M70" s="92" t="s">
+      <c r="N70" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N70" s="92"/>
-      <c r="O70" s="92" t="s">
+      <c r="O70" s="92"/>
+      <c r="P70" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="P70" s="94" t="s">
+      <c r="Q70" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="Q70" s="97" t="s">
+      <c r="R70" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="R70" s="100" t="s">
+      <c r="S70" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="S70" s="92"/>
       <c r="T70" s="92"/>
       <c r="U70" s="92"/>
-    </row>
-    <row r="71" spans="1:21" s="95" customFormat="1" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V70" s="92"/>
+    </row>
+    <row r="71" spans="1:22" s="95" customFormat="1" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="130" t="s">
         <v>189</v>
       </c>
@@ -10814,34 +11076,35 @@
       <c r="I71" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="292" t="s">
+      <c r="J71" s="293"/>
+      <c r="K71" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K71" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" s="121" t="s">
+      <c r="L71" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="M71" s="96" t="s">
+      <c r="N71" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="N71" s="96"/>
-      <c r="O71" s="121" t="s">
+      <c r="O71" s="96"/>
+      <c r="P71" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="P71" s="97"/>
-      <c r="Q71" s="98" t="s">
+      <c r="Q71" s="97"/>
+      <c r="R71" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="R71" s="99" t="s">
+      <c r="S71" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="S71" s="96"/>
       <c r="T71" s="96"/>
       <c r="U71" s="96"/>
-    </row>
-    <row r="72" spans="1:21" s="299" customFormat="1" ht="201.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V71" s="96"/>
+    </row>
+    <row r="72" spans="1:22" s="299" customFormat="1" ht="201.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="302" t="s">
         <v>190</v>
       </c>
@@ -10869,34 +11132,35 @@
       <c r="I72" s="312" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="304"/>
-      <c r="K72" s="312" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="303" t="s">
+      <c r="J72" s="303"/>
+      <c r="K72" s="304"/>
+      <c r="L72" s="312" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="303" t="s">
         <v>151</v>
       </c>
-      <c r="M72" s="307" t="s">
-        <v>20</v>
-      </c>
       <c r="N72" s="307" t="s">
         <v>20</v>
       </c>
       <c r="O72" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="P72" s="303"/>
-      <c r="Q72" s="314" t="s">
+      <c r="P72" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="303"/>
+      <c r="R72" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="R72" s="313" t="s">
+      <c r="S72" s="313" t="s">
         <v>527</v>
       </c>
-      <c r="S72" s="303"/>
       <c r="T72" s="303"/>
       <c r="U72" s="303"/>
-    </row>
-    <row r="73" spans="1:21" s="240" customFormat="1" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V72" s="303"/>
+    </row>
+    <row r="73" spans="1:22" s="240" customFormat="1" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="250" t="s">
         <v>335</v>
       </c>
@@ -10922,34 +11186,35 @@
       <c r="I73" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="J73" s="292" t="s">
+      <c r="J73" s="293"/>
+      <c r="K73" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K73" s="248" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="241" t="s">
+      <c r="L73" s="248" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="M73" s="244" t="s">
+      <c r="N73" s="244" t="s">
         <v>63</v>
       </c>
-      <c r="N73" s="245" t="s">
+      <c r="O73" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="O73" s="245" t="s">
+      <c r="P73" s="245" t="s">
         <v>339</v>
       </c>
-      <c r="P73" s="245"/>
-      <c r="Q73" s="247" t="s">
+      <c r="Q73" s="245"/>
+      <c r="R73" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="R73" s="252"/>
-      <c r="S73" s="245"/>
+      <c r="S73" s="252"/>
       <c r="T73" s="245"/>
       <c r="U73" s="245"/>
-    </row>
-    <row r="74" spans="1:21" s="240" customFormat="1" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V73" s="245"/>
+    </row>
+    <row r="74" spans="1:22" s="240" customFormat="1" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="250" t="s">
         <v>338</v>
       </c>
@@ -10975,36 +11240,37 @@
       <c r="I74" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="292" t="s">
+      <c r="J74" s="293"/>
+      <c r="K74" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K74" s="248" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="241" t="s">
+      <c r="L74" s="248" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="M74" s="244" t="s">
+      <c r="N74" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="N74" s="245" t="s">
+      <c r="O74" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="O74" s="230" t="s">
+      <c r="P74" s="230" t="s">
         <v>60</v>
       </c>
-      <c r="P74" s="245"/>
-      <c r="Q74" s="247" t="s">
+      <c r="Q74" s="245"/>
+      <c r="R74" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="R74" s="252" t="s">
+      <c r="S74" s="252" t="s">
         <v>371</v>
       </c>
-      <c r="S74" s="245"/>
       <c r="T74" s="245"/>
       <c r="U74" s="245"/>
-    </row>
-    <row r="75" spans="1:21" s="229" customFormat="1" ht="281.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V74" s="245"/>
+    </row>
+    <row r="75" spans="1:22" s="229" customFormat="1" ht="281.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="223" t="s">
         <v>191</v>
       </c>
@@ -11032,36 +11298,37 @@
       <c r="I75" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="292" t="s">
+      <c r="J75" s="293"/>
+      <c r="K75" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K75" s="248" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" s="241" t="s">
+      <c r="L75" s="248" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="M75" s="244" t="s">
+      <c r="N75" s="244" t="s">
         <v>63</v>
       </c>
-      <c r="N75" s="244" t="s">
+      <c r="O75" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="O75" s="244" t="s">
+      <c r="P75" s="244" t="s">
         <v>115</v>
       </c>
-      <c r="P75" s="245" t="s">
+      <c r="Q75" s="245" t="s">
         <v>500</v>
       </c>
-      <c r="Q75" s="110"/>
-      <c r="R75" s="252" t="s">
+      <c r="R75" s="110"/>
+      <c r="S75" s="252" t="s">
         <v>316</v>
       </c>
-      <c r="S75" s="238"/>
       <c r="T75" s="238"/>
       <c r="U75" s="238"/>
-    </row>
-    <row r="76" spans="1:21" s="240" customFormat="1" ht="126" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V75" s="238"/>
+    </row>
+    <row r="76" spans="1:22" s="240" customFormat="1" ht="126" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="250" t="s">
         <v>326</v>
       </c>
@@ -11087,32 +11354,33 @@
       <c r="I76" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="292" t="s">
+      <c r="J76" s="293"/>
+      <c r="K76" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K76" s="248" t="s">
-        <v>20</v>
-      </c>
-      <c r="L76" s="241" t="s">
+      <c r="L76" s="248" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="M76" s="242" t="s">
-        <v>20</v>
-      </c>
       <c r="N76" s="242" t="s">
         <v>20</v>
       </c>
       <c r="O76" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="P76" s="245"/>
-      <c r="Q76" s="246"/>
+      <c r="P76" s="242" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="245"/>
       <c r="R76" s="246"/>
-      <c r="S76" s="245"/>
+      <c r="S76" s="246"/>
       <c r="T76" s="245"/>
       <c r="U76" s="245"/>
-    </row>
-    <row r="77" spans="1:21" s="101" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V76" s="245"/>
+    </row>
+    <row r="77" spans="1:22" s="101" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="250" t="s">
         <v>328</v>
       </c>
@@ -11140,38 +11408,39 @@
       <c r="I77" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="292" t="s">
+      <c r="J77" s="293"/>
+      <c r="K77" s="292" t="s">
         <v>545</v>
       </c>
-      <c r="K77" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L77" s="122" t="s">
+      <c r="L77" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M77" s="123" t="s">
+      <c r="N77" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N77" s="237" t="s">
+      <c r="O77" s="237" t="s">
         <v>41</v>
       </c>
-      <c r="O77" s="102" t="s">
+      <c r="P77" s="102" t="s">
         <v>505</v>
       </c>
-      <c r="P77" s="103" t="s">
+      <c r="Q77" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="Q77" s="104" t="s">
+      <c r="R77" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="R77" s="239" t="s">
+      <c r="S77" s="239" t="s">
         <v>317</v>
       </c>
-      <c r="S77" s="102"/>
       <c r="T77" s="102"/>
       <c r="U77" s="102"/>
-    </row>
-    <row r="78" spans="1:21" s="105" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V77" s="102"/>
+    </row>
+    <row r="78" spans="1:22" s="105" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="250" t="s">
         <v>329</v>
       </c>
@@ -11199,38 +11468,39 @@
       <c r="I78" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="291" t="s">
+      <c r="J78" s="277"/>
+      <c r="K78" s="291" t="s">
         <v>545</v>
       </c>
-      <c r="K78" s="220" t="s">
-        <v>20</v>
-      </c>
-      <c r="L78" s="122" t="s">
+      <c r="L78" s="220" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M78" s="121" t="s">
+      <c r="N78" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="N78" s="237" t="s">
+      <c r="O78" s="237" t="s">
         <v>41</v>
       </c>
-      <c r="O78" s="106" t="s">
+      <c r="P78" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="P78" s="107" t="s">
+      <c r="Q78" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="Q78" s="108" t="s">
+      <c r="R78" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="R78" s="108" t="s">
+      <c r="S78" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="S78" s="106"/>
       <c r="T78" s="106"/>
       <c r="U78" s="106"/>
-    </row>
-    <row r="79" spans="1:21" s="299" customFormat="1" ht="132.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V78" s="106"/>
+    </row>
+    <row r="79" spans="1:22" s="299" customFormat="1" ht="132.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="302" t="s">
         <v>298</v>
       </c>
@@ -11258,32 +11528,33 @@
       <c r="I79" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="J79" s="304"/>
-      <c r="K79" s="307" t="s">
-        <v>20</v>
-      </c>
-      <c r="L79" s="303" t="s">
+      <c r="J79" s="303"/>
+      <c r="K79" s="304"/>
+      <c r="L79" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="303" t="s">
         <v>46</v>
       </c>
-      <c r="M79" s="307" t="s">
-        <v>20</v>
-      </c>
       <c r="N79" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="O79" s="303"/>
-      <c r="P79" s="313" t="s">
+      <c r="O79" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="303"/>
+      <c r="Q79" s="313" t="s">
         <v>306</v>
       </c>
-      <c r="Q79" s="314" t="s">
+      <c r="R79" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="R79" s="314"/>
-      <c r="S79" s="303"/>
+      <c r="S79" s="314"/>
       <c r="T79" s="303"/>
       <c r="U79" s="303"/>
-    </row>
-    <row r="80" spans="1:21" s="218" customFormat="1" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V79" s="303"/>
+    </row>
+    <row r="80" spans="1:22" s="218" customFormat="1" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="275" t="s">
         <v>299</v>
       </c>
@@ -11311,36 +11582,37 @@
       <c r="I80" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="J80" s="291" t="s">
+      <c r="J80" s="277"/>
+      <c r="K80" s="291" t="s">
         <v>545</v>
       </c>
-      <c r="K80" s="220" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" s="160" t="s">
+      <c r="L80" s="220" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="M80" s="222" t="s">
+      <c r="N80" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="N80" s="219" t="s">
-        <v>20</v>
-      </c>
-      <c r="O80" s="222" t="s">
+      <c r="O80" s="219" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="222" t="s">
         <v>115</v>
       </c>
-      <c r="P80" s="110" t="s">
+      <c r="Q80" s="110" t="s">
         <v>305</v>
       </c>
-      <c r="Q80" s="108" t="s">
+      <c r="R80" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="R80" s="108"/>
-      <c r="S80" s="222"/>
+      <c r="S80" s="108"/>
       <c r="T80" s="222"/>
       <c r="U80" s="222"/>
-    </row>
-    <row r="81" spans="1:21" s="218" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V80" s="222"/>
+    </row>
+    <row r="81" spans="1:22" s="218" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="275" t="s">
         <v>301</v>
       </c>
@@ -11368,36 +11640,37 @@
       <c r="I81" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="J81" s="291" t="s">
+      <c r="J81" s="277"/>
+      <c r="K81" s="291" t="s">
         <v>545</v>
       </c>
-      <c r="K81" s="220" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" s="160" t="s">
+      <c r="L81" s="220" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="M81" s="222" t="s">
+      <c r="N81" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="N81" s="219" t="s">
-        <v>20</v>
-      </c>
-      <c r="O81" s="222" t="s">
+      <c r="O81" s="219" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="P81" s="110" t="s">
+      <c r="Q81" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="Q81" s="108" t="s">
+      <c r="R81" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="R81" s="108"/>
-      <c r="S81" s="222"/>
+      <c r="S81" s="108"/>
       <c r="T81" s="222"/>
       <c r="U81" s="222"/>
-    </row>
-    <row r="82" spans="1:21" s="218" customFormat="1" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V81" s="222"/>
+    </row>
+    <row r="82" spans="1:22" s="218" customFormat="1" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="275" t="s">
         <v>302</v>
       </c>
@@ -11425,36 +11698,37 @@
       <c r="I82" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="J82" s="291" t="s">
+      <c r="J82" s="277"/>
+      <c r="K82" s="291" t="s">
         <v>545</v>
       </c>
-      <c r="K82" s="220" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" s="221" t="s">
+      <c r="L82" s="220" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="221" t="s">
         <v>47</v>
       </c>
-      <c r="M82" s="221" t="s">
+      <c r="N82" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="N82" s="222" t="s">
+      <c r="O82" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="O82" s="222" t="s">
+      <c r="P82" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="P82" s="110" t="s">
+      <c r="Q82" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="Q82" s="108" t="s">
+      <c r="R82" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="R82" s="108"/>
-      <c r="S82" s="222"/>
+      <c r="S82" s="108"/>
       <c r="T82" s="222"/>
       <c r="U82" s="222"/>
-    </row>
-    <row r="83" spans="1:21" s="218" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V82" s="222"/>
+    </row>
+    <row r="83" spans="1:22" s="218" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="275" t="s">
         <v>304</v>
       </c>
@@ -11482,36 +11756,37 @@
       <c r="I83" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="J83" s="291" t="s">
+      <c r="J83" s="277"/>
+      <c r="K83" s="291" t="s">
         <v>545</v>
       </c>
-      <c r="K83" s="220" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" s="221" t="s">
+      <c r="L83" s="220" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="221" t="s">
         <v>47</v>
       </c>
-      <c r="M83" s="221" t="s">
+      <c r="N83" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="N83" s="222" t="s">
+      <c r="O83" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="O83" s="222" t="s">
+      <c r="P83" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="P83" s="110" t="s">
+      <c r="Q83" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="Q83" s="108" t="s">
+      <c r="R83" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="R83" s="108"/>
-      <c r="S83" s="222"/>
+      <c r="S83" s="108"/>
       <c r="T83" s="222"/>
       <c r="U83" s="222"/>
-    </row>
-    <row r="84" spans="1:21" s="111" customFormat="1" ht="188.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V83" s="222"/>
+    </row>
+    <row r="84" spans="1:22" s="111" customFormat="1" ht="188.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="133" t="s">
         <v>192</v>
       </c>
@@ -11539,38 +11814,39 @@
       <c r="I84" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J84" s="292" t="s">
+      <c r="J84" s="293"/>
+      <c r="K84" s="292" t="s">
         <v>404</v>
       </c>
-      <c r="K84" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" s="122" t="s">
+      <c r="L84" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="M84" s="123" t="s">
+      <c r="N84" s="123" t="s">
         <v>492</v>
       </c>
-      <c r="N84" s="112" t="s">
+      <c r="O84" s="112" t="s">
         <v>491</v>
       </c>
-      <c r="O84" s="112" t="s">
+      <c r="P84" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="P84" s="280" t="s">
+      <c r="Q84" s="280" t="s">
         <v>493</v>
       </c>
-      <c r="Q84" s="110" t="s">
+      <c r="R84" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="R84" s="113" t="s">
+      <c r="S84" s="113" t="s">
         <v>494</v>
       </c>
-      <c r="S84" s="112"/>
       <c r="T84" s="112"/>
       <c r="U84" s="112"/>
-    </row>
-    <row r="85" spans="1:21" s="58" customFormat="1" ht="226.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V84" s="112"/>
+    </row>
+    <row r="85" spans="1:22" s="58" customFormat="1" ht="226.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="130" t="s">
         <v>193</v>
       </c>
@@ -11598,38 +11874,39 @@
       <c r="I85" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="292" t="s">
+      <c r="J85" s="293"/>
+      <c r="K85" s="292" t="s">
         <v>404</v>
       </c>
-      <c r="K85" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" s="122" t="s">
+      <c r="L85" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="M85" s="278" t="s">
+      <c r="N85" s="278" t="s">
         <v>530</v>
       </c>
-      <c r="N85" s="279" t="s">
+      <c r="O85" s="279" t="s">
         <v>531</v>
       </c>
-      <c r="O85" s="69" t="s">
+      <c r="P85" s="69" t="s">
         <v>414</v>
       </c>
-      <c r="P85" s="60" t="s">
+      <c r="Q85" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="Q85" s="147" t="s">
+      <c r="R85" s="147" t="s">
         <v>529</v>
       </c>
-      <c r="R85" s="61" t="s">
+      <c r="S85" s="61" t="s">
         <v>528</v>
       </c>
-      <c r="S85" s="59"/>
       <c r="T85" s="59"/>
       <c r="U85" s="59"/>
-    </row>
-    <row r="86" spans="1:21" s="13" customFormat="1" ht="196.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V85" s="59"/>
+    </row>
+    <row r="86" spans="1:22" s="13" customFormat="1" ht="196.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="290" t="s">
         <v>194</v>
       </c>
@@ -11657,44 +11934,45 @@
       <c r="I86" s="294" t="s">
         <v>20</v>
       </c>
-      <c r="J86" s="292" t="s">
+      <c r="J86" s="293"/>
+      <c r="K86" s="292" t="s">
         <v>551</v>
       </c>
-      <c r="K86" s="294" t="s">
-        <v>20</v>
-      </c>
-      <c r="L86" s="277" t="s">
+      <c r="L86" s="294" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="277" t="s">
         <v>47</v>
       </c>
-      <c r="M86" s="292" t="s">
+      <c r="N86" s="292" t="s">
         <v>532</v>
       </c>
-      <c r="N86" s="292" t="s">
+      <c r="O86" s="292" t="s">
         <v>41</v>
-      </c>
-      <c r="O86" s="276" t="s">
-        <v>67</v>
       </c>
       <c r="P86" s="276" t="s">
         <v>67</v>
       </c>
-      <c r="Q86" s="291" t="s">
+      <c r="Q86" s="276" t="s">
+        <v>67</v>
+      </c>
+      <c r="R86" s="291" t="s">
         <v>535</v>
       </c>
-      <c r="R86" s="30" t="s">
+      <c r="S86" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="S86" s="157" t="s">
-        <v>20</v>
-      </c>
       <c r="T86" s="157" t="s">
         <v>20</v>
       </c>
       <c r="U86" s="157" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" s="62" customFormat="1" ht="176.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V86" s="157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" s="62" customFormat="1" ht="176.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="130" t="s">
         <v>195</v>
       </c>
@@ -11722,11 +12000,9 @@
       <c r="I87" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="J87" s="292" t="s">
+      <c r="J87" s="293"/>
+      <c r="K87" s="292" t="s">
         <v>41</v>
-      </c>
-      <c r="K87" s="63" t="s">
-        <v>60</v>
       </c>
       <c r="L87" s="63" t="s">
         <v>60</v>
@@ -11740,20 +12016,23 @@
       <c r="O87" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="P87" s="64" t="s">
+      <c r="P87" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q87" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="Q87" s="65" t="s">
+      <c r="R87" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="R87" s="66" t="s">
+      <c r="S87" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="S87" s="63"/>
       <c r="T87" s="63"/>
       <c r="U87" s="63"/>
-    </row>
-    <row r="88" spans="1:21" ht="152.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V87" s="63"/>
+    </row>
+    <row r="88" spans="1:22" ht="152.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="130" t="s">
         <v>196</v>
       </c>
@@ -11781,11 +12060,9 @@
       <c r="I88" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J88" s="292" t="s">
+      <c r="J88" s="293"/>
+      <c r="K88" s="292" t="s">
         <v>41</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="L88" s="11" t="s">
         <v>60</v>
@@ -11802,15 +12079,18 @@
       <c r="P88" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="292" t="s">
+      <c r="Q88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R88" s="11"/>
+      <c r="S88" s="292" t="s">
         <v>232</v>
       </c>
-      <c r="S88" s="11"/>
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
-    </row>
-    <row r="89" spans="1:21" ht="273.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V88" s="11"/>
+    </row>
+    <row r="89" spans="1:22" ht="273.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="133" t="s">
         <v>197</v>
       </c>
@@ -11838,38 +12118,39 @@
       <c r="I89" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J89" s="292" t="s">
+      <c r="J89" s="293"/>
+      <c r="K89" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K89" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" s="123" t="s">
+      <c r="L89" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M89" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="M89" s="123" t="s">
+      <c r="N89" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="N89" s="123" t="s">
+      <c r="O89" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="O89" s="276" t="s">
+      <c r="P89" s="276" t="s">
         <v>122</v>
       </c>
-      <c r="P89" s="109" t="s">
+      <c r="Q89" s="109" t="s">
         <v>495</v>
       </c>
-      <c r="Q89" s="141" t="s">
+      <c r="R89" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="R89" s="112" t="s">
+      <c r="S89" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="S89" s="11"/>
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
-    </row>
-    <row r="90" spans="1:21" ht="157.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V89" s="11"/>
+    </row>
+    <row r="90" spans="1:22" ht="157.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="130" t="s">
         <v>198</v>
       </c>
@@ -11897,36 +12178,37 @@
       <c r="I90" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J90" s="292" t="s">
+      <c r="J90" s="293"/>
+      <c r="K90" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K90" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L90" s="123" t="s">
+      <c r="L90" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M90" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="M90" s="123" t="s">
+      <c r="N90" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="N90" s="123" t="s">
+      <c r="O90" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="O90" s="121" t="s">
+      <c r="P90" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="P90" s="121" t="s">
+      <c r="Q90" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="Q90" s="11" t="s">
+      <c r="R90" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="R90" s="11"/>
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
-    </row>
-    <row r="91" spans="1:21" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V90" s="11"/>
+    </row>
+    <row r="91" spans="1:22" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="133" t="s">
         <v>199</v>
       </c>
@@ -11954,34 +12236,35 @@
       <c r="I91" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J91" s="292" t="s">
+      <c r="J91" s="293"/>
+      <c r="K91" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K91" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" s="123" t="s">
+      <c r="L91" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M91" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="M91" s="123" t="s">
+      <c r="N91" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="N91" s="123" t="s">
+      <c r="O91" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="O91" s="121" t="s">
+      <c r="P91" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11" t="s">
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="R91" s="11"/>
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
-    </row>
-    <row r="92" spans="1:21" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V91" s="11"/>
+    </row>
+    <row r="92" spans="1:22" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="130" t="s">
         <v>200</v>
       </c>
@@ -12009,36 +12292,37 @@
       <c r="I92" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J92" s="292" t="s">
+      <c r="J92" s="293"/>
+      <c r="K92" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K92" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L92" s="123" t="s">
+      <c r="L92" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M92" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="M92" s="123" t="s">
+      <c r="N92" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="N92" s="123" t="s">
+      <c r="O92" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="O92" s="121" t="s">
+      <c r="P92" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="10" t="s">
+      <c r="Q92" s="11"/>
+      <c r="R92" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="R92" s="114" t="s">
+      <c r="S92" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="S92" s="11"/>
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
-    </row>
-    <row r="93" spans="1:21" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V92" s="11"/>
+    </row>
+    <row r="93" spans="1:22" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="133" t="s">
         <v>201</v>
       </c>
@@ -12066,36 +12350,37 @@
       <c r="I93" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J93" s="292" t="s">
+      <c r="J93" s="293"/>
+      <c r="K93" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K93" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L93" s="123" t="s">
+      <c r="L93" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="M93" s="123" t="s">
+      <c r="N93" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="N93" s="123" t="s">
+      <c r="O93" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="O93" s="121" t="s">
+      <c r="P93" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="P93" s="158"/>
-      <c r="Q93" s="10" t="s">
+      <c r="Q93" s="158"/>
+      <c r="R93" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R93" s="115" t="s">
+      <c r="S93" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="S93" s="11"/>
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
-    </row>
-    <row r="94" spans="1:21" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V93" s="11"/>
+    </row>
+    <row r="94" spans="1:22" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="130" t="s">
         <v>202</v>
       </c>
@@ -12123,36 +12408,37 @@
       <c r="I94" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J94" s="292" t="s">
+      <c r="J94" s="293"/>
+      <c r="K94" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K94" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L94" s="123" t="s">
+      <c r="L94" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="M94" s="123" t="s">
+      <c r="N94" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="N94" s="123" t="s">
+      <c r="O94" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="O94" s="121" t="s">
+      <c r="P94" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="10" t="s">
+      <c r="Q94" s="11"/>
+      <c r="R94" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="R94" s="116" t="s">
+      <c r="S94" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="S94" s="11"/>
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
-    </row>
-    <row r="95" spans="1:21" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V94" s="11"/>
+    </row>
+    <row r="95" spans="1:22" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="133" t="s">
         <v>203</v>
       </c>
@@ -12180,36 +12466,37 @@
       <c r="I95" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J95" s="292" t="s">
+      <c r="J95" s="293"/>
+      <c r="K95" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="K95" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L95" s="123" t="s">
+      <c r="L95" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M95" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="M95" s="123" t="s">
+      <c r="N95" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="N95" s="123" t="s">
+      <c r="O95" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="O95" s="121" t="s">
+      <c r="P95" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="10" t="s">
+      <c r="Q95" s="11"/>
+      <c r="R95" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="R95" s="118" t="s">
+      <c r="S95" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="S95" s="11"/>
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
-    </row>
-    <row r="96" spans="1:21" s="117" customFormat="1" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V95" s="11"/>
+    </row>
+    <row r="96" spans="1:22" s="117" customFormat="1" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="130" t="s">
         <v>204</v>
       </c>
@@ -12237,11 +12524,9 @@
       <c r="I96" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="J96" s="292" t="s">
+      <c r="J96" s="293"/>
+      <c r="K96" s="292" t="s">
         <v>41</v>
-      </c>
-      <c r="K96" s="118" t="s">
-        <v>60</v>
       </c>
       <c r="L96" s="118" t="s">
         <v>60</v>
@@ -12253,22 +12538,25 @@
         <v>60</v>
       </c>
       <c r="O96" s="118" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P96" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="Q96" s="122" t="s">
+      <c r="Q96" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="R96" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="R96" s="119" t="s">
+      <c r="S96" s="119" t="s">
         <v>496</v>
       </c>
-      <c r="S96" s="118"/>
       <c r="T96" s="118"/>
       <c r="U96" s="118"/>
-    </row>
-    <row r="97" spans="1:21" s="117" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V96" s="118"/>
+    </row>
+    <row r="97" spans="1:22" s="117" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="133" t="s">
         <v>205</v>
       </c>
@@ -12296,11 +12584,9 @@
       <c r="I97" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="J97" s="292" t="s">
+      <c r="J97" s="293"/>
+      <c r="K97" s="292" t="s">
         <v>41</v>
-      </c>
-      <c r="K97" s="121" t="s">
-        <v>60</v>
       </c>
       <c r="L97" s="121" t="s">
         <v>60</v>
@@ -12312,22 +12598,25 @@
         <v>60</v>
       </c>
       <c r="O97" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="P97" s="118" t="s">
+      <c r="Q97" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="Q97" s="122" t="s">
+      <c r="R97" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="R97" s="279" t="s">
+      <c r="S97" s="279" t="s">
         <v>496</v>
       </c>
-      <c r="S97" s="118"/>
       <c r="T97" s="118"/>
       <c r="U97" s="118"/>
-    </row>
-    <row r="98" spans="1:21" s="117" customFormat="1" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V97" s="118"/>
+    </row>
+    <row r="98" spans="1:22" s="117" customFormat="1" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="130" t="s">
         <v>206</v>
       </c>
@@ -12355,11 +12644,9 @@
       <c r="I98" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="J98" s="292" t="s">
+      <c r="J98" s="293"/>
+      <c r="K98" s="292" t="s">
         <v>41</v>
-      </c>
-      <c r="K98" s="121" t="s">
-        <v>60</v>
       </c>
       <c r="L98" s="121" t="s">
         <v>60</v>
@@ -12371,22 +12658,25 @@
         <v>60</v>
       </c>
       <c r="O98" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="P98" s="146" t="s">
+      <c r="Q98" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="Q98" s="142" t="s">
+      <c r="R98" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="R98" s="279" t="s">
+      <c r="S98" s="279" t="s">
         <v>496</v>
       </c>
-      <c r="S98" s="118"/>
       <c r="T98" s="118"/>
       <c r="U98" s="118"/>
-    </row>
-    <row r="99" spans="1:21" s="299" customFormat="1" ht="132.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V98" s="118"/>
+    </row>
+    <row r="99" spans="1:22" s="299" customFormat="1" ht="132.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="311" t="s">
         <v>374</v>
       </c>
@@ -12414,36 +12704,37 @@
       <c r="I99" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="304"/>
-      <c r="K99" s="307" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" s="303" t="s">
+      <c r="J99" s="303"/>
+      <c r="K99" s="304"/>
+      <c r="L99" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="M99" s="307" t="s">
-        <v>20</v>
-      </c>
       <c r="N99" s="307" t="s">
         <v>20</v>
       </c>
       <c r="O99" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="P99" s="303" t="s">
+      <c r="P99" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q99" s="303" t="s">
         <v>380</v>
       </c>
-      <c r="Q99" s="304" t="s">
+      <c r="R99" s="304" t="s">
         <v>413</v>
       </c>
-      <c r="R99" s="301" t="s">
+      <c r="S99" s="301" t="s">
         <v>536</v>
       </c>
-      <c r="S99" s="303"/>
       <c r="T99" s="303"/>
       <c r="U99" s="303"/>
-    </row>
-    <row r="100" spans="1:21" s="240" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V99" s="303"/>
+    </row>
+    <row r="100" spans="1:22" s="240" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="251" t="s">
         <v>375</v>
       </c>
@@ -12471,36 +12762,37 @@
       <c r="I100" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J100" s="292" t="s">
+      <c r="J100" s="293"/>
+      <c r="K100" s="292" t="s">
         <v>552</v>
       </c>
-      <c r="K100" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L100" s="259" t="s">
+      <c r="L100" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M100" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M100" s="259" t="s">
+      <c r="N100" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N100" s="259" t="s">
+      <c r="O100" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O100" s="259" t="s">
+      <c r="P100" s="259" t="s">
         <v>437</v>
       </c>
-      <c r="P100" s="245" t="s">
+      <c r="Q100" s="245" t="s">
         <v>415</v>
       </c>
-      <c r="Q100" s="258" t="s">
+      <c r="R100" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R100" s="245"/>
       <c r="S100" s="245"/>
       <c r="T100" s="245"/>
       <c r="U100" s="245"/>
-    </row>
-    <row r="101" spans="1:21" s="240" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V100" s="245"/>
+    </row>
+    <row r="101" spans="1:22" s="240" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="251" t="s">
         <v>376</v>
       </c>
@@ -12528,34 +12820,35 @@
       <c r="I101" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="292" t="s">
+      <c r="J101" s="293"/>
+      <c r="K101" s="292" t="s">
         <v>404</v>
       </c>
-      <c r="K101" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" s="259" t="s">
+      <c r="L101" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M101" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M101" s="259" t="s">
+      <c r="N101" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N101" s="259" t="s">
+      <c r="O101" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O101" s="245" t="s">
+      <c r="P101" s="245" t="s">
         <v>414</v>
       </c>
-      <c r="P101" s="245"/>
-      <c r="Q101" s="258" t="s">
+      <c r="Q101" s="245"/>
+      <c r="R101" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R101" s="245"/>
       <c r="S101" s="245"/>
       <c r="T101" s="245"/>
       <c r="U101" s="245"/>
-    </row>
-    <row r="102" spans="1:21" s="240" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V101" s="245"/>
+    </row>
+    <row r="102" spans="1:22" s="240" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="251" t="s">
         <v>377</v>
       </c>
@@ -12583,34 +12876,35 @@
       <c r="I102" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J102" s="292" t="s">
+      <c r="J102" s="293"/>
+      <c r="K102" s="292" t="s">
         <v>404</v>
       </c>
-      <c r="K102" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L102" s="259" t="s">
+      <c r="L102" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M102" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M102" s="259" t="s">
+      <c r="N102" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N102" s="259" t="s">
+      <c r="O102" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O102" s="259" t="s">
+      <c r="P102" s="259" t="s">
         <v>414</v>
       </c>
-      <c r="P102" s="245"/>
-      <c r="Q102" s="258" t="s">
+      <c r="Q102" s="245"/>
+      <c r="R102" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R102" s="245"/>
       <c r="S102" s="245"/>
       <c r="T102" s="245"/>
       <c r="U102" s="245"/>
-    </row>
-    <row r="103" spans="1:21" s="240" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V102" s="245"/>
+    </row>
+    <row r="103" spans="1:22" s="240" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="251" t="s">
         <v>378</v>
       </c>
@@ -12638,36 +12932,37 @@
       <c r="I103" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J103" s="292" t="s">
+      <c r="J103" s="293"/>
+      <c r="K103" s="292" t="s">
         <v>552</v>
       </c>
-      <c r="K103" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L103" s="259" t="s">
+      <c r="L103" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M103" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M103" s="259" t="s">
+      <c r="N103" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N103" s="259" t="s">
+      <c r="O103" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O103" s="245" t="s">
+      <c r="P103" s="245" t="s">
         <v>435</v>
       </c>
-      <c r="P103" s="245"/>
-      <c r="Q103" s="258" t="s">
+      <c r="Q103" s="245"/>
+      <c r="R103" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R103" s="245" t="s">
+      <c r="S103" s="245" t="s">
         <v>406</v>
       </c>
-      <c r="S103" s="245"/>
       <c r="T103" s="245"/>
       <c r="U103" s="245"/>
-    </row>
-    <row r="104" spans="1:21" s="240" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V103" s="245"/>
+    </row>
+    <row r="104" spans="1:22" s="240" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="251" t="s">
         <v>379</v>
       </c>
@@ -12695,36 +12990,37 @@
       <c r="I104" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J104" s="292" t="s">
+      <c r="J104" s="293"/>
+      <c r="K104" s="292" t="s">
         <v>404</v>
       </c>
-      <c r="K104" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" s="259" t="s">
+      <c r="L104" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M104" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M104" s="259" t="s">
+      <c r="N104" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N104" s="259" t="s">
+      <c r="O104" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O104" s="259" t="s">
+      <c r="P104" s="259" t="s">
         <v>436</v>
       </c>
-      <c r="P104" s="245" t="s">
+      <c r="Q104" s="245" t="s">
         <v>390</v>
       </c>
-      <c r="Q104" s="258" t="s">
+      <c r="R104" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R104" s="245"/>
       <c r="S104" s="245"/>
       <c r="T104" s="245"/>
       <c r="U104" s="245"/>
-    </row>
-    <row r="105" spans="1:21" s="299" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V104" s="245"/>
+    </row>
+    <row r="105" spans="1:22" s="299" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="311" t="s">
         <v>381</v>
       </c>
@@ -12752,36 +13048,37 @@
       <c r="I105" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="J105" s="304"/>
-      <c r="K105" s="307" t="s">
-        <v>20</v>
-      </c>
-      <c r="L105" s="303" t="s">
+      <c r="J105" s="303"/>
+      <c r="K105" s="304"/>
+      <c r="L105" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="M105" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="M105" s="307" t="s">
-        <v>20</v>
-      </c>
       <c r="N105" s="307" t="s">
         <v>20</v>
       </c>
       <c r="O105" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="P105" s="303" t="s">
+      <c r="P105" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q105" s="303" t="s">
         <v>433</v>
       </c>
-      <c r="Q105" s="304" t="s">
+      <c r="R105" s="304" t="s">
         <v>413</v>
       </c>
-      <c r="R105" s="301" t="s">
+      <c r="S105" s="301" t="s">
         <v>537</v>
       </c>
-      <c r="S105" s="303"/>
       <c r="T105" s="303"/>
       <c r="U105" s="303"/>
-    </row>
-    <row r="106" spans="1:21" s="254" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V105" s="303"/>
+    </row>
+    <row r="106" spans="1:22" s="254" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="262" t="s">
         <v>382</v>
       </c>
@@ -12809,34 +13106,37 @@
       <c r="I106" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J106" s="292" t="s">
+      <c r="J106" s="293" t="s">
+        <v>560</v>
+      </c>
+      <c r="K106" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K106" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" s="259" t="s">
+      <c r="L106" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M106" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M106" s="259" t="s">
+      <c r="N106" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N106" s="259" t="s">
+      <c r="O106" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O106" s="259" t="s">
+      <c r="P106" s="259" t="s">
         <v>432</v>
       </c>
-      <c r="P106" s="259"/>
-      <c r="Q106" s="258" t="s">
+      <c r="Q106" s="259"/>
+      <c r="R106" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R106" s="259"/>
       <c r="S106" s="259"/>
       <c r="T106" s="259"/>
       <c r="U106" s="259"/>
-    </row>
-    <row r="107" spans="1:21" s="254" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V106" s="259"/>
+    </row>
+    <row r="107" spans="1:22" s="254" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="262" t="s">
         <v>384</v>
       </c>
@@ -12864,36 +13164,39 @@
       <c r="I107" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J107" s="292" t="s">
+      <c r="J107" s="293" t="s">
+        <v>561</v>
+      </c>
+      <c r="K107" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K107" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L107" s="259" t="s">
+      <c r="L107" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M107" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M107" s="259" t="s">
+      <c r="N107" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N107" s="259" t="s">
+      <c r="O107" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O107" s="259" t="s">
+      <c r="P107" s="259" t="s">
         <v>434</v>
       </c>
-      <c r="P107" s="259" t="s">
+      <c r="Q107" s="259" t="s">
         <v>392</v>
       </c>
-      <c r="Q107" s="258" t="s">
+      <c r="R107" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R107" s="259"/>
       <c r="S107" s="259"/>
       <c r="T107" s="259"/>
       <c r="U107" s="259"/>
-    </row>
-    <row r="108" spans="1:21" s="254" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V107" s="259"/>
+    </row>
+    <row r="108" spans="1:22" s="254" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="262" t="s">
         <v>385</v>
       </c>
@@ -12921,38 +13224,41 @@
       <c r="I108" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J108" s="292" t="s">
+      <c r="J108" s="293" t="s">
+        <v>562</v>
+      </c>
+      <c r="K108" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K108" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L108" s="259" t="s">
+      <c r="L108" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M108" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M108" s="259" t="s">
+      <c r="N108" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N108" s="259" t="s">
+      <c r="O108" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O108" s="259" t="s">
+      <c r="P108" s="259" t="s">
         <v>438</v>
       </c>
-      <c r="P108" s="259" t="s">
+      <c r="Q108" s="259" t="s">
         <v>498</v>
       </c>
-      <c r="Q108" s="258" t="s">
+      <c r="R108" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R108" s="266" t="s">
+      <c r="S108" s="266" t="s">
         <v>463</v>
       </c>
-      <c r="S108" s="259"/>
       <c r="T108" s="259"/>
       <c r="U108" s="259"/>
-    </row>
-    <row r="109" spans="1:21" s="254" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V108" s="259"/>
+    </row>
+    <row r="109" spans="1:22" s="254" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="262" t="s">
         <v>386</v>
       </c>
@@ -12980,36 +13286,39 @@
       <c r="I109" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J109" s="292" t="s">
+      <c r="J109" s="293" t="s">
+        <v>563</v>
+      </c>
+      <c r="K109" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K109" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" s="259" t="s">
+      <c r="L109" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M109" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M109" s="259" t="s">
+      <c r="N109" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N109" s="259" t="s">
+      <c r="O109" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O109" s="259" t="s">
+      <c r="P109" s="259" t="s">
         <v>418</v>
       </c>
-      <c r="P109" s="259" t="s">
+      <c r="Q109" s="259" t="s">
         <v>538</v>
       </c>
-      <c r="Q109" s="258" t="s">
+      <c r="R109" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R109" s="259"/>
       <c r="S109" s="259"/>
       <c r="T109" s="259"/>
       <c r="U109" s="259"/>
-    </row>
-    <row r="110" spans="1:21" s="254" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V109" s="259"/>
+    </row>
+    <row r="110" spans="1:22" s="254" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="262" t="s">
         <v>408</v>
       </c>
@@ -13037,36 +13346,39 @@
       <c r="I110" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J110" s="292" t="s">
+      <c r="J110" s="293" t="s">
+        <v>559</v>
+      </c>
+      <c r="K110" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K110" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L110" s="259" t="s">
+      <c r="L110" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M110" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M110" s="259" t="s">
+      <c r="N110" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N110" s="259" t="s">
+      <c r="O110" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O110" s="259" t="s">
+      <c r="P110" s="259" t="s">
         <v>431</v>
       </c>
-      <c r="P110" s="259"/>
-      <c r="Q110" s="258" t="s">
+      <c r="Q110" s="259"/>
+      <c r="R110" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R110" s="259" t="s">
+      <c r="S110" s="259" t="s">
         <v>539</v>
       </c>
-      <c r="S110" s="259"/>
       <c r="T110" s="259"/>
       <c r="U110" s="259"/>
-    </row>
-    <row r="111" spans="1:21" s="254" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V110" s="259"/>
+    </row>
+    <row r="111" spans="1:22" s="254" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="263" t="s">
         <v>394</v>
       </c>
@@ -13094,32 +13406,33 @@
       <c r="I111" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J111" s="292" t="s">
+      <c r="J111" s="293"/>
+      <c r="K111" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K111" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L111" s="259" t="s">
+      <c r="L111" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M111" s="256" t="s">
-        <v>20</v>
-      </c>
       <c r="N111" s="256" t="s">
         <v>20</v>
       </c>
       <c r="O111" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="P111" s="259"/>
-      <c r="Q111" s="258"/>
-      <c r="R111" s="259"/>
+      <c r="P111" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q111" s="259"/>
+      <c r="R111" s="258"/>
       <c r="S111" s="259"/>
       <c r="T111" s="259"/>
       <c r="U111" s="259"/>
-    </row>
-    <row r="112" spans="1:21" s="254" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V111" s="259"/>
+    </row>
+    <row r="112" spans="1:22" s="254" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="263" t="s">
         <v>395</v>
       </c>
@@ -13147,36 +13460,39 @@
       <c r="I112" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J112" s="292" t="s">
+      <c r="J112" s="265" t="s">
+        <v>567</v>
+      </c>
+      <c r="K112" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K112" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L112" s="259" t="s">
+      <c r="L112" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M112" s="259" t="s">
+      <c r="N112" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N112" s="259" t="s">
+      <c r="O112" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O112" s="259" t="s">
+      <c r="P112" s="259" t="s">
         <v>318</v>
       </c>
-      <c r="P112" s="259" t="s">
+      <c r="Q112" s="259" t="s">
         <v>429</v>
       </c>
-      <c r="Q112" s="258"/>
-      <c r="R112" s="255" t="s">
+      <c r="R112" s="258"/>
+      <c r="S112" s="255" t="s">
         <v>428</v>
       </c>
-      <c r="S112" s="259"/>
       <c r="T112" s="259"/>
       <c r="U112" s="259"/>
-    </row>
-    <row r="113" spans="1:21" s="299" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V112" s="259"/>
+    </row>
+    <row r="113" spans="1:22" s="299" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="311" t="s">
         <v>398</v>
       </c>
@@ -13204,34 +13520,35 @@
       <c r="I113" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="J113" s="304"/>
-      <c r="K113" s="307" t="s">
-        <v>20</v>
-      </c>
-      <c r="L113" s="303" t="s">
+      <c r="J113" s="303"/>
+      <c r="K113" s="304"/>
+      <c r="L113" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="M113" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="M113" s="307" t="s">
-        <v>20</v>
-      </c>
       <c r="N113" s="307" t="s">
         <v>20</v>
       </c>
       <c r="O113" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="P113" s="303" t="s">
+      <c r="P113" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q113" s="303" t="s">
         <v>380</v>
       </c>
-      <c r="Q113" s="304" t="s">
+      <c r="R113" s="304" t="s">
         <v>413</v>
       </c>
-      <c r="R113" s="303"/>
       <c r="S113" s="303"/>
       <c r="T113" s="303"/>
       <c r="U113" s="303"/>
-    </row>
-    <row r="114" spans="1:21" s="254" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V113" s="303"/>
+    </row>
+    <row r="114" spans="1:22" s="254" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="262" t="s">
         <v>399</v>
       </c>
@@ -13259,34 +13576,37 @@
       <c r="I114" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J114" s="292" t="s">
+      <c r="J114" s="293" t="s">
+        <v>594</v>
+      </c>
+      <c r="K114" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K114" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L114" s="259" t="s">
+      <c r="L114" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M114" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M114" s="259" t="s">
+      <c r="N114" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N114" s="259" t="s">
+      <c r="O114" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O114" s="259" t="s">
+      <c r="P114" s="259" t="s">
         <v>418</v>
       </c>
-      <c r="P114" s="259"/>
-      <c r="Q114" s="258" t="s">
+      <c r="Q114" s="259"/>
+      <c r="R114" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R114" s="259"/>
       <c r="S114" s="259"/>
       <c r="T114" s="259"/>
       <c r="U114" s="259"/>
-    </row>
-    <row r="115" spans="1:21" s="254" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V114" s="259"/>
+    </row>
+    <row r="115" spans="1:22" s="254" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="262" t="s">
         <v>401</v>
       </c>
@@ -13314,34 +13634,35 @@
       <c r="I115" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J115" s="292" t="s">
+      <c r="J115" s="293"/>
+      <c r="K115" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K115" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L115" s="259" t="s">
+      <c r="L115" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M115" s="259" t="s">
+      <c r="N115" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N115" s="259" t="s">
+      <c r="O115" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O115" s="259" t="s">
+      <c r="P115" s="259" t="s">
         <v>418</v>
       </c>
-      <c r="P115" s="259"/>
-      <c r="Q115" s="258" t="s">
+      <c r="Q115" s="259"/>
+      <c r="R115" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R115" s="259"/>
       <c r="S115" s="259"/>
       <c r="T115" s="259"/>
       <c r="U115" s="259"/>
-    </row>
-    <row r="116" spans="1:21" s="299" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V115" s="259"/>
+    </row>
+    <row r="116" spans="1:22" s="299" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="311" t="s">
         <v>421</v>
       </c>
@@ -13369,34 +13690,35 @@
       <c r="I116" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="J116" s="304"/>
-      <c r="K116" s="307" t="s">
-        <v>20</v>
-      </c>
-      <c r="L116" s="303" t="s">
+      <c r="J116" s="303"/>
+      <c r="K116" s="304"/>
+      <c r="L116" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="M116" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="M116" s="307" t="s">
-        <v>20</v>
-      </c>
       <c r="N116" s="307" t="s">
         <v>20</v>
       </c>
       <c r="O116" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="P116" s="303" t="s">
+      <c r="P116" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q116" s="303" t="s">
         <v>430</v>
       </c>
-      <c r="Q116" s="304" t="s">
+      <c r="R116" s="304" t="s">
         <v>413</v>
       </c>
-      <c r="R116" s="303"/>
       <c r="S116" s="303"/>
       <c r="T116" s="303"/>
       <c r="U116" s="303"/>
-    </row>
-    <row r="117" spans="1:21" s="254" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V116" s="303"/>
+    </row>
+    <row r="117" spans="1:22" s="254" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="263" t="s">
         <v>422</v>
       </c>
@@ -13424,36 +13746,39 @@
       <c r="I117" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J117" s="292" t="s">
+      <c r="J117" s="293" t="s">
+        <v>599</v>
+      </c>
+      <c r="K117" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K117" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L117" s="259" t="s">
+      <c r="L117" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M117" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M117" s="259" t="s">
+      <c r="N117" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N117" s="259" t="s">
+      <c r="O117" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O117" s="259" t="s">
+      <c r="P117" s="259" t="s">
         <v>431</v>
       </c>
-      <c r="P117" s="259"/>
-      <c r="Q117" s="258" t="s">
+      <c r="Q117" s="259"/>
+      <c r="R117" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R117" s="259" t="s">
+      <c r="S117" s="259" t="s">
         <v>541</v>
       </c>
-      <c r="S117" s="259"/>
       <c r="T117" s="259"/>
       <c r="U117" s="259"/>
-    </row>
-    <row r="118" spans="1:21" s="254" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V117" s="259"/>
+    </row>
+    <row r="118" spans="1:22" s="254" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="263" t="s">
         <v>423</v>
       </c>
@@ -13481,34 +13806,37 @@
       <c r="I118" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J118" s="292" t="s">
+      <c r="J118" s="293" t="s">
+        <v>600</v>
+      </c>
+      <c r="K118" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K118" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L118" s="259" t="s">
+      <c r="L118" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M118" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M118" s="259" t="s">
+      <c r="N118" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N118" s="259" t="s">
+      <c r="O118" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O118" s="259" t="s">
+      <c r="P118" s="259" t="s">
         <v>418</v>
       </c>
-      <c r="P118" s="259"/>
-      <c r="Q118" s="258" t="s">
+      <c r="Q118" s="259"/>
+      <c r="R118" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R118" s="259"/>
       <c r="S118" s="259"/>
       <c r="T118" s="259"/>
       <c r="U118" s="259"/>
-    </row>
-    <row r="119" spans="1:21" s="240" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V118" s="259"/>
+    </row>
+    <row r="119" spans="1:22" s="240" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="263" t="s">
         <v>424</v>
       </c>
@@ -13536,34 +13864,37 @@
       <c r="I119" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J119" s="292" t="s">
+      <c r="J119" s="293" t="s">
+        <v>601</v>
+      </c>
+      <c r="K119" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K119" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L119" s="259" t="s">
+      <c r="L119" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M119" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M119" s="259" t="s">
+      <c r="N119" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N119" s="259" t="s">
+      <c r="O119" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O119" s="245" t="s">
+      <c r="P119" s="245" t="s">
         <v>318</v>
       </c>
-      <c r="P119" s="245"/>
-      <c r="Q119" s="258" t="s">
+      <c r="Q119" s="245"/>
+      <c r="R119" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R119" s="245"/>
       <c r="S119" s="245"/>
       <c r="T119" s="245"/>
       <c r="U119" s="245"/>
-    </row>
-    <row r="120" spans="1:21" s="254" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V119" s="245"/>
+    </row>
+    <row r="120" spans="1:22" s="254" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="263" t="s">
         <v>425</v>
       </c>
@@ -13591,36 +13922,37 @@
       <c r="I120" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J120" s="292" t="s">
+      <c r="J120" s="293"/>
+      <c r="K120" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K120" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L120" s="259" t="s">
+      <c r="L120" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M120" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M120" s="259" t="s">
+      <c r="N120" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N120" s="259" t="s">
+      <c r="O120" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O120" s="255" t="s">
+      <c r="P120" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="P120" s="259"/>
-      <c r="Q120" s="258" t="s">
+      <c r="Q120" s="259"/>
+      <c r="R120" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R120" s="255" t="s">
+      <c r="S120" s="255" t="s">
         <v>439</v>
       </c>
-      <c r="S120" s="259"/>
       <c r="T120" s="259"/>
       <c r="U120" s="259"/>
-    </row>
-    <row r="121" spans="1:21" s="240" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V120" s="259"/>
+    </row>
+    <row r="121" spans="1:22" s="240" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="263" t="s">
         <v>461</v>
       </c>
@@ -13648,36 +13980,39 @@
       <c r="I121" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="J121" s="292" t="s">
+      <c r="J121" s="293" t="s">
+        <v>602</v>
+      </c>
+      <c r="K121" s="292" t="s">
         <v>553</v>
       </c>
-      <c r="K121" s="256" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" s="259" t="s">
+      <c r="L121" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="M121" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="M121" s="259" t="s">
+      <c r="N121" s="259" t="s">
         <v>403</v>
       </c>
-      <c r="N121" s="259" t="s">
+      <c r="O121" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="O121" s="259" t="s">
+      <c r="P121" s="259" t="s">
         <v>436</v>
       </c>
-      <c r="P121" s="259" t="s">
+      <c r="Q121" s="259" t="s">
         <v>442</v>
       </c>
-      <c r="Q121" s="258" t="s">
+      <c r="R121" s="258" t="s">
         <v>413</v>
       </c>
-      <c r="R121" s="266"/>
-      <c r="S121" s="245"/>
+      <c r="S121" s="266"/>
       <c r="T121" s="245"/>
       <c r="U121" s="245"/>
-    </row>
-    <row r="122" spans="1:21" s="299" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V121" s="245"/>
+    </row>
+    <row r="122" spans="1:22" s="299" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="311" t="s">
         <v>444</v>
       </c>
@@ -13705,36 +14040,37 @@
       <c r="I122" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="J122" s="304"/>
-      <c r="K122" s="307" t="s">
-        <v>20</v>
-      </c>
-      <c r="L122" s="303" t="s">
+      <c r="J122" s="303"/>
+      <c r="K122" s="304"/>
+      <c r="L122" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="M122" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="M122" s="315" t="s">
-        <v>20</v>
-      </c>
       <c r="N122" s="315" t="s">
         <v>20</v>
       </c>
       <c r="O122" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="P122" s="303" t="s">
+      <c r="P122" s="315" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q122" s="303" t="s">
         <v>457</v>
       </c>
-      <c r="Q122" s="301" t="s">
+      <c r="R122" s="301" t="s">
         <v>60</v>
       </c>
-      <c r="R122" s="301" t="s">
+      <c r="S122" s="301" t="s">
         <v>455</v>
       </c>
-      <c r="S122" s="303"/>
       <c r="T122" s="303"/>
       <c r="U122" s="303"/>
-    </row>
-    <row r="123" spans="1:21" s="299" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V122" s="303"/>
+    </row>
+    <row r="123" spans="1:22" s="299" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="311" t="s">
         <v>446</v>
       </c>
@@ -13762,32 +14098,33 @@
       <c r="I123" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="J123" s="304"/>
-      <c r="K123" s="307" t="s">
-        <v>20</v>
-      </c>
-      <c r="L123" s="303" t="s">
+      <c r="J123" s="303"/>
+      <c r="K123" s="304"/>
+      <c r="L123" s="307" t="s">
+        <v>20</v>
+      </c>
+      <c r="M123" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="M123" s="303" t="s">
+      <c r="N123" s="303" t="s">
         <v>456</v>
       </c>
-      <c r="N123" s="315" t="s">
-        <v>20</v>
-      </c>
       <c r="O123" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="P123" s="303"/>
-      <c r="Q123" s="301" t="s">
+      <c r="P123" s="315" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q123" s="303"/>
+      <c r="R123" s="301" t="s">
         <v>60</v>
       </c>
-      <c r="R123" s="303"/>
       <c r="S123" s="303"/>
       <c r="T123" s="303"/>
       <c r="U123" s="303"/>
-    </row>
-    <row r="124" spans="1:21" s="265" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V123" s="303"/>
+    </row>
+    <row r="124" spans="1:22" s="265" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="272" t="s">
         <v>450</v>
       </c>
@@ -13815,34 +14152,37 @@
       <c r="I124" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="J124" s="292" t="s">
+      <c r="J124" s="293" t="s">
+        <v>607</v>
+      </c>
+      <c r="K124" s="292" t="s">
         <v>554</v>
       </c>
-      <c r="K124" s="267" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" s="270" t="s">
+      <c r="L124" s="267" t="s">
+        <v>20</v>
+      </c>
+      <c r="M124" s="270" t="s">
         <v>47</v>
       </c>
-      <c r="M124" s="270" t="s">
+      <c r="N124" s="270" t="s">
         <v>456</v>
       </c>
-      <c r="N124" s="270" t="s">
+      <c r="O124" s="270" t="s">
         <v>355</v>
       </c>
-      <c r="O124" s="270" t="s">
+      <c r="P124" s="270" t="s">
         <v>34</v>
       </c>
-      <c r="P124" s="270"/>
-      <c r="Q124" s="266" t="s">
+      <c r="Q124" s="270"/>
+      <c r="R124" s="266" t="s">
         <v>60</v>
       </c>
-      <c r="R124" s="270"/>
       <c r="S124" s="270"/>
       <c r="T124" s="270"/>
       <c r="U124" s="270"/>
-    </row>
-    <row r="125" spans="1:21" s="265" customFormat="1" ht="316.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V124" s="270"/>
+    </row>
+    <row r="125" spans="1:22" s="265" customFormat="1" ht="316.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="272" t="s">
         <v>451</v>
       </c>
@@ -13870,38 +14210,41 @@
       <c r="I125" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="J125" s="292" t="s">
+      <c r="J125" s="293" t="s">
+        <v>605</v>
+      </c>
+      <c r="K125" s="292" t="s">
         <v>554</v>
       </c>
-      <c r="K125" s="267" t="s">
-        <v>20</v>
-      </c>
-      <c r="L125" s="270" t="s">
+      <c r="L125" s="267" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" s="270" t="s">
         <v>47</v>
       </c>
-      <c r="M125" s="270" t="s">
+      <c r="N125" s="270" t="s">
         <v>456</v>
       </c>
-      <c r="N125" s="270" t="s">
+      <c r="O125" s="270" t="s">
         <v>355</v>
       </c>
-      <c r="O125" s="266" t="s">
+      <c r="P125" s="266" t="s">
         <v>476</v>
       </c>
-      <c r="P125" s="269" t="s">
+      <c r="Q125" s="269" t="s">
         <v>453</v>
       </c>
-      <c r="Q125" s="266" t="s">
+      <c r="R125" s="266" t="s">
         <v>458</v>
       </c>
-      <c r="R125" s="266" t="s">
+      <c r="S125" s="266" t="s">
         <v>475</v>
       </c>
-      <c r="S125" s="270"/>
       <c r="T125" s="270"/>
       <c r="U125" s="270"/>
-    </row>
-    <row r="126" spans="1:21" s="265" customFormat="1" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V125" s="270"/>
+    </row>
+    <row r="126" spans="1:22" s="265" customFormat="1" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="272" t="s">
         <v>452</v>
       </c>
@@ -13929,36 +14272,39 @@
       <c r="I126" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="J126" s="292" t="s">
+      <c r="J126" s="293" t="s">
+        <v>606</v>
+      </c>
+      <c r="K126" s="292" t="s">
         <v>554</v>
       </c>
-      <c r="K126" s="267" t="s">
-        <v>20</v>
-      </c>
-      <c r="L126" s="270" t="s">
+      <c r="L126" s="267" t="s">
+        <v>20</v>
+      </c>
+      <c r="M126" s="270" t="s">
         <v>47</v>
       </c>
-      <c r="M126" s="270" t="s">
+      <c r="N126" s="270" t="s">
         <v>456</v>
       </c>
-      <c r="N126" s="270" t="s">
+      <c r="O126" s="270" t="s">
         <v>355</v>
       </c>
-      <c r="O126" s="270" t="s">
+      <c r="P126" s="270" t="s">
         <v>459</v>
       </c>
-      <c r="P126" s="270" t="s">
+      <c r="Q126" s="270" t="s">
         <v>454</v>
       </c>
-      <c r="Q126" s="266" t="s">
+      <c r="R126" s="266" t="s">
         <v>60</v>
       </c>
-      <c r="R126" s="270"/>
       <c r="S126" s="270"/>
       <c r="T126" s="270"/>
       <c r="U126" s="270"/>
-    </row>
-    <row r="127" spans="1:21" s="265" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V126" s="270"/>
+    </row>
+    <row r="127" spans="1:22" s="265" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="263" t="s">
         <v>474</v>
       </c>
@@ -13985,10 +14331,8 @@
         <v>60</v>
       </c>
       <c r="J127" s="292"/>
-      <c r="K127" s="269" t="s">
-        <v>60</v>
-      </c>
-      <c r="L127" s="270" t="s">
+      <c r="K127" s="292"/>
+      <c r="L127" s="269" t="s">
         <v>60</v>
       </c>
       <c r="M127" s="270" t="s">
@@ -14003,58 +14347,283 @@
       <c r="P127" s="270" t="s">
         <v>60</v>
       </c>
-      <c r="Q127" s="269" t="s">
+      <c r="Q127" s="270" t="s">
         <v>60</v>
       </c>
-      <c r="R127" s="270" t="s">
+      <c r="R127" s="269" t="s">
+        <v>60</v>
+      </c>
+      <c r="S127" s="270" t="s">
         <v>473</v>
       </c>
-      <c r="S127" s="270"/>
       <c r="T127" s="270"/>
       <c r="U127" s="270"/>
-    </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="V127" s="270"/>
+    </row>
+    <row r="128" spans="1:22" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" s="265" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B129" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J129" s="265" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B130" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I130" s="265"/>
-      <c r="K130" s="265"/>
-    </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J130" s="265" t="s">
+        <v>569</v>
+      </c>
+      <c r="L130" s="265"/>
+    </row>
+    <row r="131" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B131" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I131" s="265"/>
-      <c r="K131" s="265"/>
-    </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J131" s="265" t="s">
+        <v>572</v>
+      </c>
+      <c r="L131" s="265"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B132" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I132" s="265"/>
-      <c r="K132" s="265"/>
-    </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J132" s="265" t="s">
+        <v>574</v>
+      </c>
+      <c r="L132" s="265"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B133" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I133" s="265"/>
-      <c r="K133" s="265"/>
-    </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J133" s="265" t="s">
+        <v>576</v>
+      </c>
+      <c r="L133" s="265"/>
+    </row>
+    <row r="134" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B134" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I134" s="265"/>
-      <c r="K134" s="265"/>
-    </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="J134" s="265" t="s">
+        <v>583</v>
+      </c>
+      <c r="L134" s="265"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B135" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I135" s="265"/>
-      <c r="K135" s="265"/>
-    </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I136" s="265"/>
-      <c r="K136" s="265"/>
+      <c r="J135" s="265" t="s">
+        <v>585</v>
+      </c>
+      <c r="L135" s="265"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B136" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136" s="265" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B137" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137" s="265" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B138" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="265" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B139" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J139" s="265" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B140" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J140" s="265" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B141" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J141" s="265" t="s">
+        <v>604</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U127" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:V127" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D1:V1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Source</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L82:M83 M60:M61 L9:L13 M40:M41 M43:M56 M63:M81 M3:M38 K5:K98 M84:M98" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M82:N83 N60:N61 M9:M13 N40:N41 N43:N56 N63:N81 N3:N38 L5:L98 N84:N98" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>List1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M39 M42 M62 M57 L3:L8 L14:L81 L84:L98" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N39 N42 N62 N57 M3:M8 M14:M81 M84:M98" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>List2</formula1>
     </dataValidation>
   </dataValidations>
